--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P18_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P18_trail0 Features.xlsx
@@ -6607,7 +6607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6618,29 +6618,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6661,115 +6659,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6786,72 +6774,66 @@
         <v>6.479164987942971e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.4951496410922733</v>
+        <v>3.719742331164814e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.1580870526982801</v>
+        <v>5.020113121499399e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.719742331164814e-06</v>
+        <v>0.0453016163153394</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5.020113121499399e-06</v>
+        <v>0.3221217886772336</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.0453016163153394</v>
+        <v>0.1055458717967066</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3221217886772336</v>
+        <v>1.752444475292878</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1055458717967066</v>
+        <v>1.853188456232763</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.678545276597336</v>
+        <v>3.801835171036132</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.853188456232763</v>
+        <v>5.1911747015809e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.801835171036132</v>
+        <v>78409092.15848282</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>5.1911747015809e-15</v>
+        <v>1.480769233395595e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>78409092.15848282</v>
+        <v>31.91526800343961</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.480769233395595e-06</v>
+        <v>0.000106734994823115</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>31.91526800343961</v>
+        <v>7.925530004251753</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.000106734994823115</v>
+        <v>1.615533021716279</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.925530004251753</v>
+        <v>0.006704454723736758</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.615533021716279</v>
+        <v>3.166862403045779</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.006704454723736758</v>
+        <v>0.9602038234782474</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.166862403045779</v>
+        <v>1.749852314944802</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9602038234782474</v>
+        <v>22</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.749852314944802</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.3107765443856432</v>
       </c>
     </row>
@@ -6866,72 +6848,66 @@
         <v>6.097558277182969e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.9279429313234989</v>
+        <v>2.603862446465837e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.4942205911194884</v>
+        <v>5.039417107681688e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.603862446465837e-06</v>
+        <v>0.01722611959087783</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>5.039417107681688e-06</v>
+        <v>0.2501791707445981</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.01722611959087783</v>
+        <v>0.06273747502618193</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2501791707445981</v>
+        <v>1.719843891333079</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.06273747502618193</v>
+        <v>1.876527524735817</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.638372443653993</v>
+        <v>3.627515652808107</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.876527524735817</v>
+        <v>5.702084154627336e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.627515652808107</v>
+        <v>71186343.98268186</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.702084154627336e-15</v>
+        <v>1.619528945563471e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>71186343.98268186</v>
+        <v>28.89528619117845</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.619528945563471e-06</v>
+        <v>0.0001040715750009784</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>28.89528619117845</v>
+        <v>7.735015676429192</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001040715750009784</v>
+        <v>1.894970841579698</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.735015676429192</v>
+        <v>0.006226650987289852</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.894970841579698</v>
+        <v>3.358528160712742</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.006226650987289852</v>
+        <v>0.9585953943128653</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.358528160712742</v>
+        <v>1.746632680036134</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9585953943128653</v>
+        <v>19</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.746632680036134</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.3067383735026254</v>
       </c>
     </row>
@@ -6946,72 +6922,66 @@
         <v>6.048169390786183e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.9696252022771076</v>
+        <v>2.002155850346496e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.5054607813866676</v>
+        <v>5.042825647742677e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.002155850346496e-06</v>
+        <v>-0.0047252372088179</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>5.042825647742677e-06</v>
+        <v>0.1901407596936235</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.0047252372088179</v>
+        <v>0.03610050691089737</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1901407596936235</v>
+        <v>1.720589242055554</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03610050691089737</v>
+        <v>1.797469783785209</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.640996051763089</v>
+        <v>3.490784482039782</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.797469783785209</v>
+        <v>6.157524371161517e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.490784482039782</v>
+        <v>66965729.50543165</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>6.157524371161517e-15</v>
+        <v>1.723785190183351e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>66965729.50543165</v>
+        <v>27.61285726561279</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.723785190183351e-06</v>
+        <v>0.0001041333076616689</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>27.61285726561279</v>
+        <v>6.40768396685768</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001041333076616689</v>
+        <v>2.659933922448394</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>6.40768396685768</v>
+        <v>0.004275548438327057</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>2.659933922448394</v>
+        <v>3.522601015747385</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.004275548438327057</v>
+        <v>0.9590202328100554</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.522601015747385</v>
+        <v>1.719207303115001</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9590202328100554</v>
+        <v>19</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.719207303115001</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2724106453951829</v>
       </c>
     </row>
@@ -7026,72 +6996,66 @@
         <v>6.101274728095905e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.9629843966147985</v>
+        <v>2.033779281165607e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.5180208494766991</v>
+        <v>5.034806883243352e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.033779281165607e-06</v>
+        <v>-0.02060850555981629</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>5.034806883243352e-06</v>
+        <v>0.1463314738893496</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.02060850555981629</v>
+        <v>0.02180126264805049</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1463314738893496</v>
+        <v>1.741037842854883</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02180126264805049</v>
+        <v>1.854609901095235</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.667358908740516</v>
+        <v>3.526376840677572</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.854609901095235</v>
+        <v>5.546461227275476e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.526376840677572</v>
+        <v>78575828.20098528</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5.546461227275476e-15</v>
+        <v>1.488588719379005e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>78575828.20098528</v>
+        <v>34.24474336320654</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.488588719379005e-06</v>
+        <v>0.0001001234356702914</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>34.24474336320654</v>
+        <v>6.717909570150044</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001001234356702914</v>
+        <v>1.358692228591541</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>6.717909570150044</v>
+        <v>0.004518601589212328</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.358692228591541</v>
+        <v>3.388802468964593</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.004518601589212328</v>
+        <v>0.9580512011212904</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.388802468964593</v>
+        <v>1.73664044510256</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9580512011212904</v>
+        <v>19</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.73664044510256</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.27317519197149</v>
       </c>
     </row>
@@ -7106,72 +7070,66 @@
         <v>6.153550739558557e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.9911969856169355</v>
+        <v>2.066781017388059e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.4745012495645904</v>
+        <v>5.018556412519496e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.066781017388059e-06</v>
+        <v>-0.03168964619505191</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5.018556412519496e-06</v>
+        <v>0.1183194927627359</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.03168964619505191</v>
+        <v>0.01498615915756019</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1183194927627359</v>
+        <v>1.765654316455233</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01498615915756019</v>
+        <v>1.769969805938686</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.701571642067237</v>
+        <v>3.728784654511784</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.769969805938686</v>
+        <v>4.960652639119011e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.728784654511784</v>
+        <v>85591619.00425634</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.960652639119011e-15</v>
+        <v>1.374817477912059e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>85591619.00425634</v>
+        <v>36.34137039449511</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.374817477912059e-06</v>
+        <v>0.0001218731627265926</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>36.34137039449511</v>
+        <v>9.591516342409138</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001218731627265926</v>
+        <v>1.276849427767208</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.591516342409138</v>
+        <v>0.01121198798889633</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.276849427767208</v>
+        <v>3.074299790642771</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01121198798889633</v>
+        <v>0.9574856711684273</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.074299790642771</v>
+        <v>1.703198496813177</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9574856711684273</v>
+        <v>31</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.703198496813177</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2544088599756671</v>
       </c>
     </row>
@@ -7186,72 +7144,66 @@
         <v>6.166864029019575e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.049364807775649</v>
+        <v>2.098906561487744e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.3409769274295824</v>
+        <v>4.996386478736382e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.098906561487744e-06</v>
+        <v>-0.03979889999608616</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.996386478736382e-06</v>
+        <v>0.1008091929750807</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03979889999608616</v>
+        <v>0.01173746495630495</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1008091929750807</v>
+        <v>1.790044363690123</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01173746495630495</v>
+        <v>1.996542742323455</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.73618109294411</v>
+        <v>3.891534512013576</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.996542742323455</v>
+        <v>4.554405025124847e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.891534512013576</v>
+        <v>93524816.63121369</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.554405025124847e-15</v>
+        <v>1.262965900346209e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>93524816.63121369</v>
+        <v>39.83688580890968</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.262965900346209e-06</v>
+        <v>0.0001274257617608213</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>39.83688580890968</v>
+        <v>9.785215369672217</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001274257617608213</v>
+        <v>1.223123338433849</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.785215369672217</v>
+        <v>0.01220107273438221</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.223123338433849</v>
+        <v>3.037307718101323</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01220107273438221</v>
+        <v>0.957534376995134</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.037307718101323</v>
+        <v>1.670631978658297</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.957534376995134</v>
+        <v>31</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.670631978658297</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2535521209414668</v>
       </c>
     </row>
@@ -7266,72 +7218,66 @@
         <v>6.128588103607123e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1.12323069412584</v>
+        <v>2.129107723627223e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.1279692980680416</v>
+        <v>4.969772375525543e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.129107723627223e-06</v>
+        <v>-0.04661946617880069</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.969772375525543e-06</v>
+        <v>0.08816273443294247</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.04661946617880069</v>
+        <v>0.00993908943334894</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.08816273443294247</v>
+        <v>1.799830876239807</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.00993908943334894</v>
+        <v>1.743667971545359</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.749567831050593</v>
+        <v>3.959112346859717</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.743667971545359</v>
+        <v>4.4002542497084e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.959112346859717</v>
+        <v>95028545.38830115</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4.4002542497084e-15</v>
+        <v>1.244694183329332e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>95028545.38830115</v>
+        <v>39.73616351269246</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.244694183329332e-06</v>
+        <v>0.0001287440713464054</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>39.73616351269246</v>
+        <v>8.486907912017342</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001287440713464054</v>
+        <v>1.350093169359101</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.486907912017342</v>
+        <v>0.009273127233809636</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.350093169359101</v>
+        <v>3.188879665292183</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.009273127233809636</v>
+        <v>0.9567772016001596</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.188879665292183</v>
+        <v>1.709732720579925</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9567772016001596</v>
+        <v>26</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.709732720579925</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2526093835248555</v>
       </c>
     </row>
@@ -7346,72 +7292,66 @@
         <v>6.025765522152368e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1.201187046310255</v>
+        <v>2.156664523856919e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.1454242325771133</v>
+        <v>4.939258935251492e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.156664523856919e-06</v>
+        <v>-0.05377629613177093</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.939258935251492e-06</v>
+        <v>0.07449264222304317</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.05377629613177093</v>
+        <v>0.008434623897538126</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.07449264222304317</v>
+        <v>1.837811889866555</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.008434623897538126</v>
+        <v>1.792893212431144</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.807708852451627</v>
+        <v>3.875555762532633</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.792893212431144</v>
+        <v>4.130463839408353e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.875555762532633</v>
+        <v>96099849.97885554</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.130463839408353e-15</v>
+        <v>1.242435007059653e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>96099849.97885554</v>
+        <v>38.14558185637681</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.242435007059653e-06</v>
+        <v>0.0001560839828133375</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>38.14558185637681</v>
+        <v>8.109834781421579</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001560839828133375</v>
+        <v>1.841675641299658</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.109834781421579</v>
+        <v>0.01026555304932347</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.841675641299658</v>
+        <v>3.195398305047446</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01026555304932347</v>
+        <v>0.9568626580220668</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.195398305047446</v>
+        <v>1.590598418581707</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9568626580220668</v>
+        <v>25</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.590598418581707</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2440655321071982</v>
       </c>
     </row>
@@ -7426,72 +7366,66 @@
         <v>5.844230132404566e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1.267335787279071</v>
+        <v>2.181048836094405e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.4315672326839231</v>
+        <v>4.905218203135143e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.181048836094405e-06</v>
+        <v>-0.06059656119461668</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.905218203135143e-06</v>
+        <v>0.0641264295859266</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.06059656119461668</v>
+        <v>0.007782168189867009</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.0641264295859266</v>
+        <v>1.841222114368061</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.007782168189867009</v>
+        <v>1.86134182412428</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.821765332278246</v>
+        <v>4.266297454765601</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.86134182412428</v>
+        <v>2.758910308095765e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.266297454765601</v>
+        <v>143563593.6753992</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.758910308095765e-15</v>
+        <v>8.285829707675461e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>143563593.6753992</v>
+        <v>56.8625358831184</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>8.285829707675461e-07</v>
+        <v>0.0001439323575997814</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>56.8625358831184</v>
+        <v>9.773125656966132</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001439323575997814</v>
+        <v>1.366749445495538</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.773125656966132</v>
+        <v>0.01374755306017928</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.366749445495538</v>
+        <v>3.170271694744006</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01374755306017928</v>
+        <v>0.9570158349028416</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.170271694744006</v>
+        <v>1.541899366975285</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9570158349028416</v>
+        <v>25</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.541899366975285</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2819374772408401</v>
       </c>
     </row>
@@ -7506,72 +7440,66 @@
         <v>5.594420980483012e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1.307124468987525</v>
+        <v>2.200198044782314e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.6635747000628407</v>
+        <v>4.869006157685265e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.200198044782314e-06</v>
+        <v>-0.06554005710408645</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.869006157685265e-06</v>
+        <v>0.06321667168388521</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.06554005710408645</v>
+        <v>0.008292352804127247</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.06321667168388521</v>
+        <v>1.8464500317733</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.008292352804127247</v>
+        <v>2.104226679932327</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.830766105039784</v>
+        <v>4.559146150416171</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.104226679932327</v>
+        <v>2.612734439673773e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.559146150416171</v>
+        <v>152246008.7477241</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.612734439673773e-15</v>
+        <v>7.824323141720496e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>152246008.7477241</v>
+        <v>60.56017229810774</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>7.824323141720496e-07</v>
+        <v>0.0001232305648597259</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>60.56017229810774</v>
+        <v>10.88440458133847</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001232305648597259</v>
+        <v>1.165343795609865</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>10.88440458133847</v>
+        <v>0.01459915743969331</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.165343795609865</v>
+        <v>3.09691816306246</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01459915743969331</v>
+        <v>0.9584409672640927</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.09691816306246</v>
+        <v>1.572050715015995</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9584409672640927</v>
+        <v>25</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.572050715015995</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.3048899380163781</v>
       </c>
     </row>
@@ -7586,72 +7514,66 @@
         <v>5.308540762886556e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1.320210132972336</v>
+        <v>2.178841769492278e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.8235551589258567</v>
+        <v>4.832419394181688e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.178841769492278e-06</v>
+        <v>-0.06840772074449815</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.832419394181688e-06</v>
+        <v>0.06666528263880693</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.06840772074449815</v>
+        <v>0.009123437514246217</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.06666528263880693</v>
+        <v>1.85583958101284</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.009123437514246217</v>
+        <v>1.936133688970548</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.835826882813306</v>
+        <v>4.563091167160192</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.936133688970548</v>
+        <v>2.608218717695388e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.563091167160192</v>
+        <v>158048505.863621</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.608218717695388e-15</v>
+        <v>7.584750276429903e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>158048505.863621</v>
+        <v>65.15155659806061</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>7.584750276429903e-07</v>
+        <v>0.0001108604018959089</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>65.15155659806061</v>
+        <v>8.746135546176232</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001108604018959089</v>
+        <v>1.243423641762575</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.746135546176232</v>
+        <v>0.008480253914924945</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.243423641762575</v>
+        <v>3.254130605160861</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.008480253914924945</v>
+        <v>0.9578028888524699</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.254130605160861</v>
+        <v>1.578594344285018</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9578028888524699</v>
+        <v>34</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.578594344285018</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2922496904139842</v>
       </c>
     </row>
@@ -7666,72 +7588,66 @@
         <v>5.014447119685801e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1.31272204389663</v>
+        <v>2.110789171596596e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.9324802848242211</v>
+        <v>4.79663295162752e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.110789171596596e-06</v>
+        <v>-0.07016147124107043</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.79663295162752e-06</v>
+        <v>0.06978038610150987</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.07016147124107043</v>
+        <v>0.009790306385738311</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.06978038610150987</v>
+        <v>1.843777714215042</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.009790306385738311</v>
+        <v>1.845156792933423</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.825323132207577</v>
+        <v>4.582451915286994</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.845156792933423</v>
+        <v>2.586225953932221e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.582451915286994</v>
+        <v>157769017.1849718</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.586225953932221e-15</v>
+        <v>7.579632385842794e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>157769017.1849718</v>
+        <v>64.37391259167494</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>7.579632385842794e-07</v>
+        <v>0.0001127955124456692</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>64.37391259167494</v>
+        <v>7.106255793757454</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001127955124456692</v>
+        <v>1.433661880522474</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.106255793757454</v>
+        <v>0.005696046078202843</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.433661880522474</v>
+        <v>3.336169249816483</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.005696046078202843</v>
+        <v>0.9582969962557146</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.336169249816483</v>
+        <v>1.536833606441137</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9582969962557146</v>
+        <v>38</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.536833606441137</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2937773878124315</v>
       </c>
     </row>
@@ -7746,72 +7662,66 @@
         <v>4.725975141773589e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1.287902525776493</v>
+        <v>2.026364596610456e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1.005928281498002</v>
+        <v>4.76214930507881e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.026364596610456e-06</v>
+        <v>-0.07146817406702088</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.76214930507881e-06</v>
+        <v>0.07229261991685716</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.07146817406702088</v>
+        <v>0.01033166241829922</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.07229261991685716</v>
+        <v>1.844333886012657</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01033166241829922</v>
+        <v>1.804803939006599</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.820324182698505</v>
+        <v>4.690968886420549</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.804803939006599</v>
+        <v>2.467954757099556e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.690968886420549</v>
+        <v>166283385.6147285</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.467954757099556e-15</v>
+        <v>7.196123258405416e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>166283385.6147285</v>
+        <v>68.23935459650127</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>7.196123258405416e-07</v>
+        <v>0.000118239671155162</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>68.23935459650127</v>
+        <v>7.099731511518689</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.000118239671155162</v>
+        <v>1.475966792180174</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>7.099731511518689</v>
+        <v>0.005960011038400856</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.475966792180174</v>
+        <v>3.323312485439962</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.005960011038400856</v>
+        <v>0.959277649483964</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.323312485439962</v>
+        <v>1.578410286617363</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.959277649483964</v>
+        <v>41</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.578410286617363</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.3231308363943355</v>
       </c>
     </row>
@@ -7826,72 +7736,66 @@
         <v>4.448703190480618e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1.244675608326603</v>
+        <v>1.939558104045252e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1.043636728696726</v>
+        <v>4.729095702639225e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.939558104045252e-06</v>
+        <v>-0.07267170674048422</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.729095702639225e-06</v>
+        <v>0.07438609568370524</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.07267170674048422</v>
+        <v>0.01081154973034067</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.07438609568370524</v>
+        <v>1.853984816945637</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01081154973034067</v>
+        <v>1.920750715538095</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.829073491411368</v>
+        <v>4.776463660965541</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.920750715538095</v>
+        <v>2.380396717586722e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.776463660965541</v>
+        <v>176766660.4870076</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.380396717586722e-15</v>
+        <v>6.792154478092948e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>176766660.4870076</v>
+        <v>74.37895239528913</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>6.792154478092948e-07</v>
+        <v>0.0001279545598179711</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>74.37895239528913</v>
+        <v>8.715538211826996</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001279545598179711</v>
+        <v>1.3251044948737</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.715538211826996</v>
+        <v>0.009719505945414226</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.3251044948737</v>
+        <v>3.254170844033755</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.009719505945414226</v>
+        <v>0.9598364922165559</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.254170844033755</v>
+        <v>1.568733472961297</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9598364922165559</v>
+        <v>50</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.568733472961297</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.3805565395885782</v>
       </c>
     </row>
@@ -7906,72 +7810,66 @@
         <v>4.186532402230554e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1.181282752190808</v>
+        <v>1.850463614586284e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1.042825609252828</v>
+        <v>4.697509887696357e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.850463614586284e-06</v>
+        <v>-0.07367584557875415</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.697509887696357e-06</v>
+        <v>0.07606513643725246</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.07367584557875415</v>
+        <v>0.01121070836084698</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.07606513643725246</v>
+        <v>1.856934740943696</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01121070836084698</v>
+        <v>1.88202149337005</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.825569527552314</v>
+        <v>4.811070427022667</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.88202149337005</v>
+        <v>2.346274766808991e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.811070427022667</v>
+        <v>179437033.061411</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.346274766808991e-15</v>
+        <v>6.68042213240368e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>179437033.061411</v>
+        <v>75.54453100951405</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>6.68042213240368e-07</v>
+        <v>0.0001378843927897816</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>75.54453100951405</v>
+        <v>11.60794963615345</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001378843927897816</v>
+        <v>1.092403929831826</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>11.60794963615345</v>
+        <v>0.0185791628411246</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.092403929831826</v>
+        <v>3.143788973140987</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0185791628411246</v>
+        <v>0.9589033233276877</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.143788973140987</v>
+        <v>1.539191336340553</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9589033233276877</v>
+        <v>50</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.539191336340553</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.4958927923214967</v>
       </c>
     </row>
@@ -7986,72 +7884,66 @@
         <v>3.941201822918015e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>1.096569672378173</v>
+        <v>1.759287630291047e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.9989798003701447</v>
+        <v>4.667426329091611e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.759287630291047e-06</v>
+        <v>-0.07440512247461244</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.667426329091611e-06</v>
+        <v>0.07759285974256407</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.07440512247461244</v>
+        <v>0.01155335650060613</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.07759285974256407</v>
+        <v>1.868764973686332</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01155335650060613</v>
+        <v>1.952701552399831</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.841401788442251</v>
+        <v>4.780900596589777</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.952701552399831</v>
+        <v>2.433019110994214e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.780900596589777</v>
+        <v>172993993.5576236</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.433019110994214e-15</v>
+        <v>6.947698562031286e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>172993993.5576236</v>
+        <v>72.81277268969727</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>6.947698562031286e-07</v>
+        <v>0.0001473530136470426</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>72.81277268969727</v>
+        <v>12.19036263402923</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001473530136470426</v>
+        <v>1.136925087251572</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>12.19036263402923</v>
+        <v>0.02189738592116661</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.136925087251572</v>
+        <v>3.240102961780186</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.02189738592116661</v>
+        <v>0.9585207401415349</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.240102961780186</v>
+        <v>1.548189865984177</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9585207401415349</v>
+        <v>50</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.548189865984177</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.5766513449801633</v>
       </c>
     </row>
@@ -8066,72 +7958,66 @@
         <v>3.711748578359725e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.9896233376417857</v>
+        <v>1.664751672665982e-06</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.9014388433601779</v>
+        <v>4.63888406975049e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.664751672665982e-06</v>
+        <v>-0.0747494855275483</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4.63888406975049e-06</v>
+        <v>0.07933689777833805</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.0747494855275483</v>
+        <v>0.01187807899894047</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.07933689777833805</v>
+        <v>1.906164649776627</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.01187807899894047</v>
+        <v>1.779092451838866</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.893539556978779</v>
+        <v>5.439660211553239</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.779092451838866</v>
+        <v>2.148555615362945e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>5.439660211553239</v>
+        <v>194101982.6397605</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>2.148555615362945e-15</v>
+        <v>6.238215835059117e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>194101982.6397605</v>
+        <v>80.9480782506148</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>6.238215835059117e-07</v>
+        <v>0.0001602313995711573</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>80.9480782506148</v>
+        <v>9.933696014392591</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001602313995711573</v>
+        <v>1.528963455019213</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.933696014392591</v>
+        <v>0.01581136476113958</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.528963455019213</v>
+        <v>3.364136133926664</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01581136476113958</v>
+        <v>0.9612614491740181</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.364136133926664</v>
+        <v>1.445776053803386</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9612614491740181</v>
+        <v>49</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.445776053803386</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.5426561897104487</v>
       </c>
     </row>
@@ -8146,72 +8032,66 @@
         <v>3.497294690315453e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.8627200464717187</v>
+        <v>1.566302906935068e-06</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.7446094715368714</v>
+        <v>4.612003786804171e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.566302906935068e-06</v>
+        <v>-0.0742981269223902</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>4.612003786804171e-06</v>
+        <v>0.08094136406212729</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.0742981269223902</v>
+        <v>0.01206711127141629</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.08094136406212729</v>
+        <v>1.910068738540451</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.01206711127141629</v>
+        <v>1.836449922422257</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.901751108879733</v>
+        <v>5.130283157990021</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.836449922422257</v>
+        <v>1.580974787475204e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>5.130283157990021</v>
+        <v>257201051.5048861</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.580974787475204e-15</v>
+        <v>4.680938402296367e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>257201051.5048861</v>
+        <v>104.5852463267977</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>4.680938402296367e-07</v>
+        <v>0.0001605048764514931</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>104.5852463267977</v>
+        <v>9.149055727694936</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001605048764514931</v>
+        <v>1.573879302187464</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.149055727694936</v>
+        <v>0.01343509610815754</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.573879302187464</v>
+        <v>3.290495126043773</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01343509610815754</v>
+        <v>0.959955492404048</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.290495126043773</v>
+        <v>1.382941731109283</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.959955492404048</v>
+        <v>49</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.382941731109283</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.4444594272784917</v>
       </c>
     </row>
@@ -8226,72 +8106,66 @@
         <v>3.297993415174555e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.7234805324397605</v>
+        <v>1.467614385141663e-06</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.5385654770336403</v>
+        <v>4.58699128868485e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.467614385141663e-06</v>
+        <v>-0.07279613735601302</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>4.58699128868485e-06</v>
+        <v>0.08274285167160213</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.07279613735601302</v>
+        <v>0.01214017703255825</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.08274285167160213</v>
+        <v>1.904511592661333</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.01214017703255825</v>
+        <v>1.850391264823022</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.896484551724358</v>
+        <v>4.772975708037317</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.850391264823022</v>
+        <v>2.114713492705866e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.772975708037317</v>
+        <v>179615265.0944487</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>2.114713492705866e-15</v>
+        <v>6.675716389232546e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>179615265.0944487</v>
+        <v>68.22413271104674</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>6.675716389232546e-07</v>
+        <v>0.0001649540577742969</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>68.22413271104674</v>
+        <v>9.947376900419226</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001649540577742969</v>
+        <v>1.346166917307951</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.947376900419226</v>
+        <v>0.01632225469048728</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.346166917307951</v>
+        <v>3.102210691685729</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01632225469048728</v>
+        <v>0.9594783210500015</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.102210691685729</v>
+        <v>1.392710824639776</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9594783210500015</v>
+        <v>49</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.392710824639776</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.3714449322692447</v>
       </c>
     </row>
@@ -8306,72 +8180,66 @@
         <v>3.112190785278499e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.5808651014387881</v>
+        <v>1.371210783895884e-06</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.2972089989576063</v>
+        <v>4.564071553049461e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.371210783895884e-06</v>
+        <v>-0.07001436663545037</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>4.564071553049461e-06</v>
+        <v>0.08587339014631434</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.07001436663545037</v>
+        <v>0.01226944580498238</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.08587339014631434</v>
+        <v>1.890638705643728</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.01226944580498238</v>
+        <v>1.861396815238607</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.873713822277987</v>
+        <v>4.277037354478396</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.861396815238607</v>
+        <v>3.149851775740061e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.277037354478396</v>
+        <v>121982639.7449654</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>3.149851775740061e-15</v>
+        <v>9.810492340136246e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>121982639.7449654</v>
+        <v>46.86905231525642</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>9.810492340136246e-07</v>
+        <v>0.0001723446565126884</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>46.86905231525642</v>
+        <v>12.02564942564713</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001723446565126884</v>
+        <v>1.08786078069259</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>12.02564942564713</v>
+        <v>0.02492383691704612</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.08786078069259</v>
+        <v>2.86997069377551</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.02492383691704612</v>
+        <v>0.9606626137369089</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.86997069377551</v>
+        <v>1.419262812309577</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9606626137369089</v>
+        <v>34</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.419262812309577</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.3631936770060745</v>
       </c>
     </row>
@@ -8386,72 +8254,66 @@
         <v>2.937986315155421e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.44239142767691</v>
+        <v>1.27737966042899e-06</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.03808192190518156</v>
+        <v>4.543459981430528e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.27737966042899e-06</v>
+        <v>-0.06616486101919146</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>4.543459981430528e-06</v>
+        <v>0.09015276857396118</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.06616486101919146</v>
+        <v>0.01249783265633672</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.09015276857396118</v>
+        <v>1.852646423480609</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.01249783265633672</v>
+        <v>1.883808287227682</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.814125248578163</v>
+        <v>4.20623283269008</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.883808287227682</v>
+        <v>3.256788725567988e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.20623283269008</v>
+        <v>118101520.5088062</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>3.256788725567988e-15</v>
+        <v>1.005864552398622e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>118101520.5088062</v>
+        <v>45.42558866086521</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.005864552398622e-06</v>
+        <v>0.0001874816523474062</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>45.42558866086521</v>
+        <v>13.42494555114663</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001874816523474062</v>
+        <v>1.012246773263527</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>13.42494555114663</v>
+        <v>0.03378966129003873</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.012246773263527</v>
+        <v>2.683722275314474</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.03378966129003873</v>
+        <v>0.9600028244785082</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.683722275314474</v>
+        <v>1.583096300057863</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9600028244785082</v>
+        <v>37</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.583096300057863</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.3662952896005518</v>
       </c>
     </row>
@@ -8466,72 +8328,66 @@
         <v>2.776042783627663e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.3111211427786578</v>
+        <v>1.188590694321894e-06</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.2220422464311458</v>
+        <v>4.52516362789346e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.188590694321894e-06</v>
+        <v>-0.06183529666884291</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>4.52516362789346e-06</v>
+        <v>0.0946928000845378</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.06183529666884291</v>
+        <v>0.01278259178813731</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.0946928000845378</v>
+        <v>1.837728487023211</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.01278259178813731</v>
+        <v>1.89971834854166</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.786748234452429</v>
+        <v>4.161772957166939</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.89971834854166</v>
+        <v>3.326744413648765e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.161772957166939</v>
+        <v>117608004.7654417</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>3.326744413648765e-15</v>
+        <v>1.009362048436887e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>117608004.7654417</v>
+        <v>46.0143403662785</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.009362048436887e-06</v>
+        <v>0.0001822533678895528</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>46.0143403662785</v>
+        <v>10.91050510257624</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001822533678895528</v>
+        <v>1.300739198065237</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>10.91050510257624</v>
+        <v>0.02169528082100062</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.300739198065237</v>
+        <v>2.968674392270235</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.02169528082100062</v>
+        <v>0.9590813614115203</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.968674392270235</v>
+        <v>1.57841717877857</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9590813614115203</v>
+        <v>40</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.57841717877857</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.2974914019209225</v>
       </c>
     </row>
@@ -8546,72 +8402,66 @@
         <v>2.625924324615833e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.1859234080476578</v>
+        <v>1.106371020254285e-06</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.4738191238965328</v>
+        <v>4.509149584029025e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.106371020254285e-06</v>
+        <v>-0.0564855085620621</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>4.509149584029025e-06</v>
+        <v>0.1013902175820854</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.0564855085620621</v>
+        <v>0.01346102839990046</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1013902175820854</v>
+        <v>1.795665142383094</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.01346102839990046</v>
+        <v>1.914793009669133</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.737387522412617</v>
+        <v>3.909903928003759</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.914793009669133</v>
+        <v>3.769155295198196e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.909903928003759</v>
+        <v>103706193.7330122</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3.769155295198196e-15</v>
+        <v>1.13204835210069e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>103706193.7330122</v>
+        <v>40.53716953337716</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.13204835210069e-06</v>
+        <v>0.0001324453766588065</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>40.53716953337716</v>
+        <v>8.452994415781282</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001324453766588065</v>
+        <v>1.495418046150663</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.452994415781282</v>
+        <v>0.009463634675745151</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.495418046150663</v>
+        <v>3.290488262885269</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.009463634675745151</v>
+        <v>0.959265503376551</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.290488262885269</v>
+        <v>1.65134925510889</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.959265503376551</v>
+        <v>40</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.65134925510889</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.2873930826027529</v>
       </c>
     </row>
@@ -8626,72 +8476,66 @@
         <v>2.488053466487819e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.06549048753980612</v>
+        <v>1.026583916573811e-06</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.7015988990876076</v>
+        <v>4.495511232146551e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.026583916573811e-06</v>
+        <v>-0.05010208549792342</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>4.495511232146551e-06</v>
+        <v>0.1087402469869163</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.05010208549792342</v>
+        <v>0.01432495890038988</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1087402469869163</v>
+        <v>1.766600195209516</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.01432495890038988</v>
+        <v>1.963448388790772</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.690764596384168</v>
+        <v>4.370421429941665</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.963448388790772</v>
+        <v>4.735843869710839e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.370421429941665</v>
+        <v>83376019.62317227</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>4.735843869710839e-15</v>
+        <v>1.401231441731013e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>83376019.62317227</v>
+        <v>32.92150588071816</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>1.401231441731013e-06</v>
+        <v>0.0001110364351645037</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>32.92150588071816</v>
+        <v>7.253006349704234</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001110364351645037</v>
+        <v>1.619279387597128</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>7.253006349704234</v>
+        <v>0.00584119393503014</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.619279387597128</v>
+        <v>3.397108325337834</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.00584119393503014</v>
+        <v>0.9586074539485977</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.397108325337834</v>
+        <v>1.713070716402169</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9586074539485977</v>
+        <v>41</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.713070716402169</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.2684041849937248</v>
       </c>
     </row>
@@ -8706,72 +8550,66 @@
         <v>2.365658288501567e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.04876209433180326</v>
+        <v>9.512685858725527e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.8895292770079615</v>
+        <v>4.48415941185577e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>9.512685858725527e-07</v>
+        <v>-0.04332719208795166</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>4.48415941185577e-06</v>
+        <v>0.1152271930237229</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.04332719208795166</v>
+        <v>0.01514460245640327</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1152271930237229</v>
+        <v>1.754318203507275</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.01514460245640327</v>
+        <v>1.984343645312173</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.673071999050042</v>
+        <v>4.255593662395235</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.984343645312173</v>
+        <v>4.994864409711217e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.255593662395235</v>
+        <v>83006960.5506489</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>4.994864409711217e-15</v>
+        <v>1.40909630348449e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>83006960.5506489</v>
+        <v>34.41539248361164</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>1.40909630348449e-06</v>
+        <v>9.410142228206473e-05</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>34.41539248361164</v>
+        <v>8.080132386113409</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>9.410142228206473e-05</v>
+        <v>1.50791015923456</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>8.080132386113409</v>
+        <v>0.006143744414105464</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.50791015923456</v>
+        <v>3.383171526833972</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.006143744414105464</v>
+        <v>0.9569694416365155</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.383171526833972</v>
+        <v>1.68008452899268</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9569694416365155</v>
+        <v>44</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.68008452899268</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.2871180634070755</v>
       </c>
     </row>
@@ -8786,72 +8624,66 @@
         <v>2.260536188168875e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.1564632781847643</v>
+        <v>8.821963778337334e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.033733217450893</v>
+        <v>4.474969289162317e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>8.821963778337334e-07</v>
+        <v>-0.03631242147886909</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>4.474969289162317e-06</v>
+        <v>0.1210982831215474</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.03631242147886909</v>
+        <v>0.01597611082876161</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1210982831215474</v>
+        <v>1.644168968365048</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.01597611082876161</v>
+        <v>1.548132280081903</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.561014110901654</v>
+        <v>6.071257754501699</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.548132280081903</v>
+        <v>1.119356274712455e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>6.071257754501699</v>
+        <v>37536826.78684299</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.119356274712455e-14</v>
+        <v>2.941758821762012e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>37536826.78684299</v>
+        <v>15.77187951518824</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>2.941758821762012e-06</v>
+        <v>9.817893912120103e-05</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>15.77187951518824</v>
+        <v>10.08910250781766</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>9.817893912120103e-05</v>
+        <v>1.546432558129015</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>10.08910250781766</v>
+        <v>0.009993633173751433</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.546432558129015</v>
+        <v>3.37709700943595</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.009993633173751433</v>
+        <v>0.9503896430857064</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.37709700943595</v>
+        <v>1.778225403818231</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9503896430857064</v>
+        <v>27</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.778225403818231</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.299868410101084</v>
       </c>
     </row>
@@ -8866,72 +8698,66 @@
         <v>2.173371893400907e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.2515404583522235</v>
+        <v>8.19344974148533e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.136178266409333</v>
+        <v>4.467491002860387e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>8.19344974148533e-07</v>
+        <v>-0.03168072058608472</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>4.467491002860387e-06</v>
+        <v>0.1226218839715803</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.03168072058608472</v>
+        <v>0.01603517015781127</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1226218839715803</v>
+        <v>1.624462250806326</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.01603517015781127</v>
+        <v>1.525904904061635</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.533694106393516</v>
+        <v>4.386555779013034</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.525904904061635</v>
+        <v>2.353430235689914e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.386555779013034</v>
+        <v>18235822.66635554</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>2.353430235689914e-14</v>
+        <v>6.016525757288651e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>18235822.66635554</v>
+        <v>7.826219950597906</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>6.016525757288651e-06</v>
+        <v>0.000109851249572008</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>7.826219950597906</v>
+        <v>10.59440240647838</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.000109851249572008</v>
+        <v>1.595381368870092</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>10.59440240647838</v>
+        <v>0.0123298539078554</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.595381368870092</v>
+        <v>3.482383385580773</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.0123298539078554</v>
+        <v>0.9494266300917654</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.482383385580773</v>
+        <v>1.846200620389276</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9494266300917654</v>
+        <v>23</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.846200620389276</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.2723909317451529</v>
       </c>
     </row>
@@ -8946,72 +8772,66 @@
         <v>2.101601561096115e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.3260815027162531</v>
+        <v>7.650662927352193e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.201923426674226</v>
+        <v>4.46099307718397e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>7.650662927352193e-07</v>
+        <v>-0.02945542730824697</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>4.46099307718397e-06</v>
+        <v>0.123456298446065</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.02945542730824697</v>
+        <v>0.01610482150042904</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.123456298446065</v>
+        <v>1.601546843209677</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.01610482150042904</v>
+        <v>1.566241531260415</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.504773386866468</v>
+        <v>4.172884230524299</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.566241531260415</v>
+        <v>2.600614435172481e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.172884230524299</v>
+        <v>16562849.89359904</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>2.600614435172481e-14</v>
+        <v>6.556981897482275e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>16562849.89359904</v>
+        <v>7.134213479244298</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>6.556981897482275e-06</v>
+        <v>0.0001044018001175334</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>7.134213479244298</v>
+        <v>11.47689152603331</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001044018001175334</v>
+        <v>1.256861983480521</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>11.47689152603331</v>
+        <v>0.01375170479182675</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.256861983480521</v>
+        <v>3.311072338382587</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01375170479182675</v>
+        <v>0.9479533904102118</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.311072338382587</v>
+        <v>1.861383223477568</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9479533904102118</v>
+        <v>20</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.861383223477568</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.2647006788932069</v>
       </c>
     </row>
@@ -9026,72 +8846,66 @@
         <v>2.041935567152378e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.3781180161152519</v>
+        <v>7.168889218292129e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.239611038975306</v>
+        <v>4.455026291674878e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>7.168889218292129e-07</v>
+        <v>-0.02831251358631443</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>4.455026291674878e-06</v>
+        <v>0.1247312094105095</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.02831251358631443</v>
+        <v>0.01635531740072232</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1247312094105095</v>
+        <v>1.585837315912657</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.01635531740072232</v>
+        <v>1.524080492644832</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.490740211747409</v>
+        <v>4.156580306376773</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.524080492644832</v>
+        <v>2.621055939222549e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.156580306376773</v>
+        <v>16059949.68868973</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>2.621055939222549e-14</v>
+        <v>6.689976809107115e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>16059949.68868973</v>
+        <v>6.760279480277695</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>6.689976809107115e-06</v>
+        <v>9.990426693365148e-05</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>6.760279480277695</v>
+        <v>10.48863927697124</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>9.990426693365148e-05</v>
+        <v>1.311927525910487</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>10.48863927697124</v>
+        <v>0.01099062364485544</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.311927525910487</v>
+        <v>3.300660281124169</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01099062364485544</v>
+        <v>0.945278609030716</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.300660281124169</v>
+        <v>1.849492633944618</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.945278609030716</v>
+        <v>11</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.849492633944618</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.2497009938146799</v>
       </c>
     </row>
@@ -9106,72 +8920,66 @@
         <v>1.992421293374867e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.4078196340182874</v>
+        <v>6.738579189241481e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.257035090754113</v>
+        <v>4.449398658877748e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>6.738579189241481e-07</v>
+        <v>-0.02756693390941953</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>4.449398658877748e-06</v>
+        <v>0.1261811967558286</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.02756693390941953</v>
+        <v>0.01667803405860086</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1261811967558286</v>
+        <v>1.586777418431492</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.01667803405860086</v>
+        <v>1.506349110344046</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.492318247327518</v>
+        <v>4.158306160268633</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.506349110344046</v>
+        <v>2.618880716574066e-14</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.158306160268633</v>
+        <v>16152630.62438502</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>2.618880716574066e-14</v>
+        <v>6.645416224309706e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>16152630.62438502</v>
+        <v>6.832855579364034</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>6.645416224309706e-06</v>
+        <v>9.394500469743847e-05</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>6.832855579364034</v>
+        <v>8.430027538978331</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>9.394500469743847e-05</v>
+        <v>1.470751456887606</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>8.430027538978331</v>
+        <v>0.006676235983733946</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.470751456887606</v>
+        <v>3.383523577654081</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.006676235983733946</v>
+        <v>0.94657051794965</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.383523577654081</v>
+        <v>1.865079264433323</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.94657051794965</v>
+        <v>20</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.865079264433323</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.2407381065529992</v>
       </c>
     </row>
@@ -9186,72 +8994,66 @@
         <v>1.951474305609396e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.4176872152133917</v>
+        <v>6.365709324581821e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.261659373466132</v>
+        <v>4.444033913456117e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>6.365709324581821e-07</v>
+        <v>-0.0268850568065211</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>4.444033913456117e-06</v>
+        <v>0.1275895486152167</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.0268850568065211</v>
+        <v>0.01699931068730516</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1275895486152167</v>
+        <v>1.587576955320806</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.01699931068730516</v>
+        <v>1.48880333202948</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.49426728893902</v>
+        <v>4.164852444858814</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.48880333202948</v>
+        <v>2.610654511517959e-14</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.164852444858814</v>
+        <v>16276542.37337185</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>2.610654511517959e-14</v>
+        <v>6.599371477048911e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>16276542.37337185</v>
+        <v>6.916298175681699</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>6.599371477048911e-06</v>
+        <v>9.705372252611975e-05</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>6.916298175681699</v>
+        <v>6.695259701798385</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>9.705372252611975e-05</v>
+        <v>1.618093261567871</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>6.695259701798385</v>
+        <v>0.004350578932979008</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.618093261567871</v>
+        <v>3.447361669869173</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.004350578932979008</v>
+        <v>0.9464214606715612</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.447361669869173</v>
+        <v>1.849381000880408</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9464214606715612</v>
+        <v>20</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.849381000880408</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.2238905256028197</v>
       </c>
     </row>
@@ -9266,72 +9068,66 @@
         <v>1.917442194814729e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.4120674271917299</v>
+        <v>6.044989148684357e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.258946467988612</v>
+        <v>4.438917857024891e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>6.044989148684357e-07</v>
+        <v>-0.02597283014333085</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>4.438917857024891e-06</v>
+        <v>0.1287969610872441</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.02597283014333085</v>
+        <v>0.01726145723515176</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1287969610872441</v>
+        <v>1.586753918800972</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.01726145723515176</v>
+        <v>1.479011454134679</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.492925110924218</v>
+        <v>4.177071598253525</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.479011454134679</v>
+        <v>2.595402999160258e-14</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.177071598253525</v>
+        <v>16407269.7032793</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>2.595402999160258e-14</v>
+        <v>6.558205516427457e-06</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>16407269.7032793</v>
+        <v>6.986785919754872</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>6.558205516427457e-06</v>
+        <v>0.0001074294453972416</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>6.986785919754872</v>
+        <v>7.203774709400289</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001074294453972416</v>
+        <v>1.686385803342151</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>7.203774709400289</v>
+        <v>0.005574983395192737</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.686385803342151</v>
+        <v>3.401850367987017</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.005574983395192737</v>
+        <v>0.9457316753949726</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>3.401850367987017</v>
+        <v>1.814585524639276</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9457316753949726</v>
+        <v>20</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.814585524639276</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.207438555379388</v>
       </c>
     </row>
@@ -9346,72 +9142,66 @@
         <v>1.889023928205068e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.3954185444847806</v>
+        <v>5.754894452936616e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.250934837988347</v>
+        <v>4.434111590593146e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>5.754894452936616e-07</v>
+        <v>-0.02443303948544171</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>4.434111590593146e-06</v>
+        <v>0.1297056664672037</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.02443303948544171</v>
+        <v>0.01741920122281533</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1297056664672037</v>
+        <v>1.595556522818123</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.01741920122281533</v>
+        <v>1.472546771132913</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.501596739564177</v>
+        <v>4.188397889100958</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.472546771132913</v>
+        <v>2.581384969736735e-14</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>4.188397889100958</v>
+        <v>17092980.52070899</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>2.581384969736735e-14</v>
+        <v>6.354051522323511e-06</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>17092980.52070899</v>
+        <v>7.542032029343996</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>6.354051522323511e-06</v>
+        <v>0.0001190574379616101</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>7.542032029343996</v>
+        <v>10.29102758792328</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001190574379616101</v>
+        <v>1.240802804863081</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>10.29102758792328</v>
+        <v>0.01260880759064814</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.240802804863081</v>
+        <v>3.188963413589557</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.01260880759064814</v>
+        <v>0.9462882103156086</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>3.188963413589557</v>
+        <v>1.843899705083526</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9462882103156086</v>
+        <v>20</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.843899705083526</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.2060042061085836</v>
       </c>
     </row>
@@ -9426,72 +9216,66 @@
         <v>1.865132559009512e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.3724630252696676</v>
+        <v>5.578511588977459e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.23757390274428</v>
+        <v>4.429738433872917e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>5.578511588977459e-07</v>
+        <v>-0.0220335391831265</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>4.429738433872917e-06</v>
+        <v>0.1306945418331606</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.0220335391831265</v>
+        <v>0.01756537721909146</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1306945418331606</v>
+        <v>1.594544106740262</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.01756537721909146</v>
+        <v>1.449960345581125</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.499342475135163</v>
+        <v>4.224568131019252</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.449960345581125</v>
+        <v>2.537371187715537e-14</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>4.224568131019252</v>
+        <v>17342868.42963723</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>2.537371187715537e-14</v>
+        <v>6.272619873104891e-06</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>17342868.42963723</v>
+        <v>7.631780355947021</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>6.272619873104891e-06</v>
+        <v>0.0001288000000875591</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>7.631780355947021</v>
+        <v>12.12452563739101</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001288000000875591</v>
+        <v>1.119024343130939</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>12.12452563739101</v>
+        <v>0.01893413091768119</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.119024343130939</v>
+        <v>3.012042871691792</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.01893413091768119</v>
+        <v>0.9478000955119076</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>3.012042871691792</v>
+        <v>1.867071321601559</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9478000955119076</v>
+        <v>20</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.867071321601559</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.2102582152745558</v>
       </c>
     </row>
@@ -9506,72 +9290,66 @@
         <v>1.844551420312197e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.3485071988306512</v>
+        <v>5.578511588977459e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.218562859440199</v>
+        <v>4.425918021935489e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>5.578511588977459e-07</v>
+        <v>-0.01912348807905315</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>4.425918021935489e-06</v>
+        <v>0.1322771216317395</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.01912348807905315</v>
+        <v>0.01786179529854664</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1322771216317395</v>
+        <v>1.606170369789391</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.01786179529854664</v>
+        <v>1.48003553510244</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.513858413295506</v>
+        <v>4.242415309035422</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.48003553510244</v>
+        <v>2.347607855664978e-14</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>4.242415309035422</v>
+        <v>18920198.76702768</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>2.347607855664978e-14</v>
+        <v>5.781835622571425e-06</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>18920198.76702768</v>
+        <v>8.403823899638903</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>5.781835622571425e-06</v>
+        <v>0.0001141431811475525</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>8.403823899638903</v>
+        <v>10.40291558463751</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001141431811475525</v>
+        <v>1.239020751831799</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>10.40291558463751</v>
+        <v>0.01235264956060162</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.239020751831799</v>
+        <v>3.235449296861738</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.01235264956060162</v>
+        <v>0.9481203061673624</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>3.235449296861738</v>
+        <v>1.841915999477799</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9481203061673624</v>
+        <v>20</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.841915999477799</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.2122548941653433</v>
       </c>
     </row>
@@ -9586,72 +9364,66 @@
         <v>1.826216885668505e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.3278476616191185</v>
+        <v>5.578511588977459e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.194782810761675</v>
+        <v>4.422689803875596e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>5.578511588977459e-07</v>
+        <v>-0.01605965515439118</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>4.422689803875596e-06</v>
+        <v>0.1346742117090106</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.01605965515439118</v>
+        <v>0.01839392746554705</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1346742117090106</v>
+        <v>1.592269235547015</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.01839392746554705</v>
+        <v>1.568654719017031</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.508745206608314</v>
+        <v>4.197382749086771</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.568654719017031</v>
+        <v>2.398251750541309e-14</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>4.197382749086771</v>
+        <v>19539398.39192989</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>2.398251750541309e-14</v>
+        <v>5.478278528583918e-06</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>19539398.39192989</v>
+        <v>9.156239540236909</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>5.478278528583918e-06</v>
+        <v>0.0001146606947879717</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>9.156239540236909</v>
+        <v>7.715304502771849</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001146606947879717</v>
+        <v>1.575661688096802</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>7.715304502771849</v>
+        <v>0.006825283754488265</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.575661688096802</v>
+        <v>3.350910501095802</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.006825283754488265</v>
+        <v>0.944494989602903</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.350910501095802</v>
+        <v>1.800892357868134</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.944494989602903</v>
+        <v>18</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.800892357868134</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.2009718214545154</v>
       </c>
     </row>
@@ -10028,7 +9800,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.764810567016641</v>
+        <v>1.797482898657719</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.283675214114645</v>
@@ -10117,7 +9889,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.763106853096696</v>
+        <v>1.799259018233389</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.405192261793368</v>
@@ -10206,7 +9978,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.785032484222841</v>
+        <v>1.818774818175401</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.079906032802401</v>
@@ -10295,7 +10067,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.811216503719606</v>
+        <v>1.838727465105887</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.160084299698686</v>
@@ -10384,7 +10156,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.794200978141485</v>
+        <v>1.823694392205858</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.371266230033397</v>
@@ -10473,7 +10245,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.82641094171628</v>
+        <v>1.852062740847483</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.01500562693275</v>
@@ -10562,7 +10334,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.850765841083909</v>
+        <v>1.871410075137092</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.962389427739431</v>
@@ -10651,7 +10423,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.851386543815327</v>
+        <v>1.872291105424379</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.469567055777993</v>
@@ -10740,7 +10512,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.857220183411198</v>
+        <v>1.883981352223683</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.106761041224409</v>
@@ -10829,7 +10601,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.879353365369907</v>
+        <v>1.899374138105682</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.905462372319933</v>
@@ -10918,7 +10690,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.878069287532977</v>
+        <v>1.903180306877744</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.973851807295616</v>
@@ -11007,7 +10779,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.888647508701121</v>
+        <v>1.913199041942621</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.635174905819497</v>
@@ -11096,7 +10868,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.899478837832572</v>
+        <v>1.922821650964437</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.82683072709718</v>
@@ -11185,7 +10957,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.885589455115099</v>
+        <v>1.910075333213196</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.573187777060835</v>
@@ -11274,7 +11046,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.900999023007721</v>
+        <v>1.923967320868212</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.575613230358133</v>
@@ -11363,7 +11135,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.902093708731532</v>
+        <v>1.926499955977394</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.707148115645242</v>
@@ -11452,7 +11224,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.899648253659379</v>
+        <v>1.913904501694541</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.310910010093691</v>
@@ -11541,7 +11313,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.891969010665855</v>
+        <v>1.916437602931266</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.807172171825571</v>
@@ -11630,7 +11402,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.89271802684877</v>
+        <v>1.917563677002978</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.459845831637315</v>
@@ -11719,7 +11491,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.910178033060906</v>
+        <v>1.930822414464397</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.647243040585324</v>
@@ -11808,7 +11580,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.905579409796194</v>
+        <v>1.927056616311023</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.543390784247931</v>
@@ -11897,7 +11669,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.905155018327657</v>
+        <v>1.925550667053687</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.962486586236833</v>
@@ -11986,7 +11758,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.900537058869276</v>
+        <v>1.925280552525665</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.604706988561297</v>
@@ -12075,7 +11847,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.895484019975777</v>
+        <v>1.920391014759905</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.797341390028534</v>
@@ -12164,7 +11936,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.887437421030659</v>
+        <v>1.915530701042151</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.762493991372822</v>
@@ -12253,7 +12025,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.901904442790148</v>
+        <v>1.922883466561337</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.882102603753954</v>
@@ -12342,7 +12114,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.901939214554716</v>
+        <v>1.920453068159186</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.938840080331249</v>
@@ -12431,7 +12203,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.896203094561015</v>
+        <v>1.918788070920109</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.831297526392431</v>
@@ -12520,7 +12292,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.913437281203711</v>
+        <v>1.933503195312055</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.628742635910317</v>
@@ -12609,7 +12381,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.897509296474518</v>
+        <v>1.916353627751519</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.301000872354004</v>
@@ -12698,7 +12470,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.887249347506634</v>
+        <v>1.906650286070792</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.505357590280413</v>
@@ -12787,7 +12559,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.898086129730331</v>
+        <v>1.922262126923242</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.69072688720994</v>
@@ -12876,7 +12648,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.887330919761531</v>
+        <v>1.911126756639149</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.445905031463532</v>
@@ -12965,7 +12737,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.886986127272749</v>
+        <v>1.910306570067714</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.057452801780316</v>
@@ -13054,7 +12826,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.884134295814905</v>
+        <v>1.904339065236064</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.752418368475863</v>
@@ -13143,7 +12915,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.867688514502411</v>
+        <v>1.885774362495677</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.875777443831308</v>
@@ -13232,7 +13004,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.844084632830501</v>
+        <v>1.868735388366865</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.541833726206721</v>
@@ -13321,7 +13093,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.833950543080009</v>
+        <v>1.858474273683329</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.63132053178444</v>
@@ -13410,7 +13182,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.835528014880769</v>
+        <v>1.857442223138255</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.086014031799682</v>
@@ -13499,7 +13271,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.844931884914355</v>
+        <v>1.86872076269512</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.565950693270856</v>
@@ -13588,7 +13360,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.83644511545472</v>
+        <v>1.863258095257543</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.571331462417189</v>
@@ -13677,7 +13449,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.830806885593502</v>
+        <v>1.865986458658046</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.315991867458699</v>
@@ -13766,7 +13538,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.837995844561676</v>
+        <v>1.868428946096524</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.902000837171511</v>
@@ -13855,7 +13627,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.836864041157928</v>
+        <v>1.867145351496059</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.339155559595723</v>
@@ -13944,7 +13716,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.853232066208622</v>
+        <v>1.882853117017811</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.441432700575996</v>
@@ -14033,7 +13805,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.847187193308868</v>
+        <v>1.876412555689817</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.143548858013386</v>
@@ -14122,7 +13894,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.854714331708922</v>
+        <v>1.88325232942703</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.496607563594465</v>
@@ -14211,7 +13983,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.855009078587142</v>
+        <v>1.885019081968992</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.689066879214209</v>
@@ -14300,7 +14072,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.855290599140503</v>
+        <v>1.888132087375935</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.659292038455193</v>
@@ -14389,7 +14161,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.867245265223086</v>
+        <v>1.903231660641951</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.958981624790928</v>
@@ -14478,7 +14250,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.867042293419067</v>
+        <v>1.905577471830581</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.962803696078709</v>
@@ -14567,7 +14339,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.887968824304617</v>
+        <v>1.928023018107019</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.544669896862472</v>
@@ -14656,7 +14428,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.905212426355072</v>
+        <v>1.94078686700228</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.65507637147427</v>
@@ -14745,7 +14517,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.906996532928497</v>
+        <v>1.943675630908498</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.50320898021963</v>
@@ -14834,7 +14606,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.907367895917447</v>
+        <v>1.94011702425597</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.882374551582937</v>
@@ -14923,7 +14695,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.926815804850804</v>
+        <v>1.951064832023991</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.561291254071936</v>
@@ -15012,7 +14784,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.904733859712338</v>
+        <v>1.931032760762556</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.699025687121624</v>
@@ -15101,7 +14873,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.907879830340519</v>
+        <v>1.936179490427146</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.067059231868235</v>
@@ -15190,7 +14962,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.913940765362929</v>
+        <v>1.946678335824868</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.189027370956648</v>
@@ -15279,7 +15051,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.900216137262559</v>
+        <v>1.934755957751974</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.443160988457239</v>
@@ -15368,7 +15140,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.923444402593715</v>
+        <v>1.958993482536749</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.066674845357969</v>
@@ -15457,7 +15229,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.905671952654849</v>
+        <v>1.941884862296722</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.431305149869036</v>
@@ -15546,7 +15318,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.919857910776955</v>
+        <v>1.953714873837506</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.493486583910788</v>
@@ -15635,7 +15407,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.900082712896897</v>
+        <v>1.932828004793869</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.610144125974441</v>
@@ -15724,7 +15496,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.888986149885563</v>
+        <v>1.922719364678181</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.644670344789855</v>
@@ -15813,7 +15585,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.884043224104172</v>
+        <v>1.920756847290781</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.499632018161752</v>
@@ -15902,7 +15674,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.882266183316162</v>
+        <v>1.915176946750253</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.383030918369835</v>
@@ -15991,7 +15763,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.857720850891369</v>
+        <v>1.897272265781812</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.924908115787349</v>
@@ -16080,7 +15852,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.860241726428913</v>
+        <v>1.901082784404496</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.500715653272133</v>
@@ -16169,7 +15941,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.840435100451116</v>
+        <v>1.887269302479736</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.757097045519395</v>
@@ -16258,7 +16030,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.830631401900217</v>
+        <v>1.883845882996156</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.265710350097823</v>
@@ -16347,7 +16119,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.845980459620897</v>
+        <v>1.898090533491252</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.584060205279076</v>
@@ -16436,7 +16208,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.825423609824364</v>
+        <v>1.879733137781629</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.609826394696886</v>
@@ -16525,7 +16297,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.815274888441794</v>
+        <v>1.866985135141747</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.23110924082824</v>
@@ -16614,7 +16386,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.809315606979246</v>
+        <v>1.8595868406059</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.476148640110681</v>
@@ -16703,7 +16475,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.79950405285572</v>
+        <v>1.849438989484626</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.797889357943743</v>
@@ -16792,7 +16564,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.792120145588495</v>
+        <v>1.843675859662884</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.250984733127382</v>
@@ -16881,7 +16653,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.777470501075555</v>
+        <v>1.833479266907578</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.022179937105237</v>
@@ -16970,7 +16742,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.790400570437368</v>
+        <v>1.846538101378831</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.246100731547927</v>
@@ -17059,7 +16831,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.799763869010769</v>
+        <v>1.856585665088728</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.374427371696509</v>
@@ -17148,7 +16920,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.812817539750708</v>
+        <v>1.869477894943394</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.210072384314547</v>
@@ -17434,7 +17206,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.564355525910417</v>
+        <v>1.584500873178478</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.750866508043114</v>
@@ -17523,7 +17295,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.566477645961192</v>
+        <v>1.587904793509908</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.721173806736057</v>
@@ -17612,7 +17384,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.59179631489032</v>
+        <v>1.609443052651211</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.286329780427428</v>
@@ -17701,7 +17473,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.62864294847502</v>
+        <v>1.643468180121748</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.703602058196021</v>
@@ -17790,7 +17562,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.630294035880508</v>
+        <v>1.646710446912785</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.720767073499245</v>
@@ -17879,7 +17651,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.657051485009154</v>
+        <v>1.673644608765092</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.749545989531069</v>
@@ -17968,7 +17740,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.68893814941773</v>
+        <v>1.700777100283058</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.910258739785755</v>
@@ -18057,7 +17829,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.695757260477007</v>
+        <v>1.706322663209427</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.115466090804288</v>
@@ -18146,7 +17918,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.704888049497288</v>
+        <v>1.713774152558287</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.754926664033346</v>
@@ -18235,7 +18007,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.71146563084661</v>
+        <v>1.713330209159072</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.157216134554569</v>
@@ -18324,7 +18096,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.695576656405518</v>
+        <v>1.697925929184984</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.031026744073518</v>
@@ -18413,7 +18185,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.6801579592271</v>
+        <v>1.687406743102042</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.895315714307235</v>
@@ -18502,7 +18274,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.690512944950267</v>
+        <v>1.697800741351921</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.987614126687034</v>
@@ -18591,7 +18363,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.676117132984887</v>
+        <v>1.682475416933759</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.196416409783112</v>
@@ -18680,7 +18452,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.67711865954746</v>
+        <v>1.683144412782594</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.093805095036271</v>
@@ -18769,7 +18541,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.677521510679728</v>
+        <v>1.683171002095914</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.04293054082601</v>
@@ -18858,7 +18630,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.693136026075849</v>
+        <v>1.698189655677684</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.020522213938988</v>
@@ -18947,7 +18719,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.693886538743414</v>
+        <v>1.696998327385565</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.150202744606843</v>
@@ -19036,7 +18808,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.684403148348553</v>
+        <v>1.688199240192879</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.424903332224498</v>
@@ -19125,7 +18897,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.679457341316136</v>
+        <v>1.684378681717713</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.427479780559494</v>
@@ -19214,7 +18986,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.674378434746943</v>
+        <v>1.679241829614314</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.5011155067187</v>
@@ -19303,7 +19075,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.645231742279807</v>
+        <v>1.655544183395381</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.123070348743168</v>
@@ -19392,7 +19164,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.629673734125469</v>
+        <v>1.639950191375247</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.990773265417202</v>
@@ -19481,7 +19253,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.620966776476445</v>
+        <v>1.636667630849906</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.225792094293852</v>
@@ -19570,7 +19342,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.605684003239062</v>
+        <v>1.627339604391927</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.124301043729</v>
@@ -19659,7 +19431,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.611149479678741</v>
+        <v>1.63044976236895</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.794947514746002</v>
@@ -19748,7 +19520,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.615048346910781</v>
+        <v>1.635256839227169</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.211971458695892</v>
@@ -19837,7 +19609,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.604430567696248</v>
+        <v>1.623764794124033</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.800511394925883</v>
@@ -19926,7 +19698,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.618896581123164</v>
+        <v>1.641338166927186</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.87172046474124</v>
@@ -20015,7 +19787,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.614498743402209</v>
+        <v>1.636559490762744</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.201846952139316</v>
@@ -20104,7 +19876,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.598829888340062</v>
+        <v>1.62021459076515</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.001509961692185</v>
@@ -20193,7 +19965,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.596967088067219</v>
+        <v>1.61652425052959</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.053486925798032</v>
@@ -20282,7 +20054,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.590399286934632</v>
+        <v>1.60773489724254</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.091321201521261</v>
@@ -20371,7 +20143,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.58237118809962</v>
+        <v>1.601648691969558</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.969919660104178</v>
@@ -20460,7 +20232,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.591327016373896</v>
+        <v>1.606375816361495</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.261982888342908</v>
@@ -20549,7 +20321,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.585758969652273</v>
+        <v>1.596019085104845</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.819255711994932</v>
@@ -20638,7 +20410,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.593440104690394</v>
+        <v>1.603182519611515</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.947656754969918</v>
@@ -20727,7 +20499,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.578180897732794</v>
+        <v>1.593065329175372</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.047771292346989</v>
@@ -20816,7 +20588,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.592407672457196</v>
+        <v>1.601489053511201</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.736603884778563</v>
@@ -20905,7 +20677,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.607120032437011</v>
+        <v>1.615316083114769</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.323168752695499</v>
@@ -20994,7 +20766,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.61794758015848</v>
+        <v>1.62850561578834</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.122148182543099</v>
@@ -21083,7 +20855,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.618067714166075</v>
+        <v>1.631640117774849</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.217205469490049</v>
@@ -21172,7 +20944,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.611835436005215</v>
+        <v>1.618605831960403</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.040075577444441</v>
@@ -21261,7 +21033,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.596004312095576</v>
+        <v>1.604680220148948</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.069827209165553</v>
@@ -21350,7 +21122,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.597438953551477</v>
+        <v>1.606899124745658</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.092594924455141</v>
@@ -21439,7 +21211,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.617321042627217</v>
+        <v>1.626743941402362</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.746767865512435</v>
@@ -21528,7 +21300,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.624240130677187</v>
+        <v>1.632059143643106</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.646424593923033</v>
@@ -21617,7 +21389,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.628774315231442</v>
+        <v>1.640897040687894</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.020959606543698</v>
@@ -21706,7 +21478,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.630337042246758</v>
+        <v>1.644532789399932</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.909204806053111</v>
@@ -21795,7 +21567,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.638255406718779</v>
+        <v>1.650189550093069</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.021435378898817</v>
@@ -21884,7 +21656,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.642430371571366</v>
+        <v>1.65515368437758</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.838202885553331</v>
@@ -21973,7 +21745,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.654538213612916</v>
+        <v>1.66493859158795</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.984296719080269</v>
@@ -22062,7 +21834,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.676891900268468</v>
+        <v>1.681114780227685</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.137552372953335</v>
@@ -22151,7 +21923,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.658999272998639</v>
+        <v>1.666578697413649</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.101909944425068</v>
@@ -22240,7 +22012,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.651491304434881</v>
+        <v>1.659863226198688</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.175500207093743</v>
@@ -22329,7 +22101,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.638430671896139</v>
+        <v>1.645759535143296</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.174898170549831</v>
@@ -22418,7 +22190,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.629739728518941</v>
+        <v>1.633459975129775</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.084192414529397</v>
@@ -22507,7 +22279,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.65484967634862</v>
+        <v>1.656377980509794</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.069215044497526</v>
@@ -22596,7 +22368,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.669885621876259</v>
+        <v>1.668404708279919</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.91602972706956</v>
@@ -22685,7 +22457,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.671055487075139</v>
+        <v>1.671647729714848</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.193661894505432</v>
@@ -22774,7 +22546,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.675526743769352</v>
+        <v>1.676358313500459</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.96917768731556</v>
@@ -22863,7 +22635,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.678138214434504</v>
+        <v>1.674025535009935</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.104262955668089</v>
@@ -22952,7 +22724,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.672125537998425</v>
+        <v>1.667405961413972</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.199044027536085</v>
@@ -23041,7 +22813,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.689084379349406</v>
+        <v>1.682061572636174</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.91562231632944</v>
@@ -23130,7 +22902,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.687655441434417</v>
+        <v>1.685082345096632</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.312147018208285</v>
@@ -23219,7 +22991,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.695075480121261</v>
+        <v>1.693892007474507</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.173591203435853</v>
@@ -23308,7 +23080,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.681968728786677</v>
+        <v>1.683312738338979</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.826207815402282</v>
@@ -23397,7 +23169,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.66916347777147</v>
+        <v>1.672893784054526</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.754540983428752</v>
@@ -23486,7 +23258,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.675789248170272</v>
+        <v>1.680499312458737</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.316720684898629</v>
@@ -23575,7 +23347,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.667404213530314</v>
+        <v>1.673413337603616</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.842424950813954</v>
@@ -23664,7 +23436,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.665854089631579</v>
+        <v>1.673989367431115</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.948675541532158</v>
@@ -23753,7 +23525,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.66853822154659</v>
+        <v>1.677241067320634</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.898054381590635</v>
@@ -23842,7 +23614,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.662887020250301</v>
+        <v>1.670660946489134</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.866720054882897</v>
@@ -23931,7 +23703,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.653780824610853</v>
+        <v>1.667491185570632</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.908392442958738</v>
@@ -24020,7 +23792,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.651123348285768</v>
+        <v>1.665558997778121</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.92712685874423</v>
@@ -24109,7 +23881,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.614355445293148</v>
+        <v>1.627662487831193</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.822623546519599</v>
@@ -24198,7 +23970,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.589406470963703</v>
+        <v>1.609110773123249</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.886011526931566</v>
@@ -24287,7 +24059,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.581748808173981</v>
+        <v>1.600197211355371</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.201722756245697</v>
@@ -24376,7 +24148,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.583004803924583</v>
+        <v>1.602879532707385</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.820715689213196</v>
@@ -24465,7 +24237,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.574592993697503</v>
+        <v>1.594651760334039</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.84458700451928</v>
@@ -24554,7 +24326,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.571121761147623</v>
+        <v>1.594088605220363</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.081070296763269</v>
@@ -24840,7 +24612,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.841619687356143</v>
+        <v>1.8320131648548</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.070451694660219</v>
@@ -24929,7 +24701,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.840508713087069</v>
+        <v>1.836731772170512</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.228773375443073</v>
@@ -25018,7 +24790,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.848747070046454</v>
+        <v>1.846990911587876</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.743495837904142</v>
@@ -25107,7 +24879,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.867631728122632</v>
+        <v>1.867273961369707</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.326221623539978</v>
@@ -25196,7 +24968,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.866654483970707</v>
+        <v>1.864809079939565</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.563159309633319</v>
@@ -25285,7 +25057,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.875035440794787</v>
+        <v>1.873115893694865</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.22256622713315</v>
@@ -25374,7 +25146,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.880047597849857</v>
+        <v>1.878033276714938</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.022243280121357</v>
@@ -25463,7 +25235,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.881408176734711</v>
+        <v>1.880350446397612</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.150786590604</v>
@@ -25552,7 +25324,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.88720469643388</v>
+        <v>1.887818803896871</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.777604490672357</v>
@@ -25641,7 +25413,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.887944594797133</v>
+        <v>1.88847503567032</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.74634506238532</v>
@@ -25730,7 +25502,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.892940907194836</v>
+        <v>1.894823421720197</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.020832611961534</v>
@@ -25819,7 +25591,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.896466001244129</v>
+        <v>1.898261516761443</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.20019503102567</v>
@@ -25908,7 +25680,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.902584037483108</v>
+        <v>1.899467241214369</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.442732262440225</v>
@@ -25997,7 +25769,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.893186424427578</v>
+        <v>1.89524101723334</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.358972129613169</v>
@@ -26086,7 +25858,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.891423483029463</v>
+        <v>1.893994013395922</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.03326378796514</v>
@@ -26175,7 +25947,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.898957394052375</v>
+        <v>1.902090374761182</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.716553981985331</v>
@@ -26264,7 +26036,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.891852986921438</v>
+        <v>1.886853935846045</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.169415358856997</v>
@@ -26353,7 +26125,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.892387073007354</v>
+        <v>1.888371028197735</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.263145991605067</v>
@@ -26442,7 +26214,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.874747324952169</v>
+        <v>1.869558500685943</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.990494828913187</v>
@@ -26531,7 +26303,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.874017530133968</v>
+        <v>1.869743967777405</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.942233460149874</v>
@@ -26620,7 +26392,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.871311627248254</v>
+        <v>1.865022468769469</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.918419495642519</v>
@@ -26709,7 +26481,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.868010356811133</v>
+        <v>1.863736773168424</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.710215578052905</v>
@@ -26798,7 +26570,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.866541624093399</v>
+        <v>1.86611284016806</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.986377590221256</v>
@@ -26887,7 +26659,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.869960558363451</v>
+        <v>1.870860290556547</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.752662483778686</v>
@@ -26976,7 +26748,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.867936978238079</v>
+        <v>1.868355401595249</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.341606415543527</v>
@@ -27065,7 +26837,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.866006022637214</v>
+        <v>1.865808201806201</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.377315721894026</v>
@@ -27154,7 +26926,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.868700170803674</v>
+        <v>1.865983249507509</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.843670775661414</v>
@@ -27243,7 +27015,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.861832914407308</v>
+        <v>1.86251519871572</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.052509860796977</v>
@@ -27332,7 +27104,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.871468798351086</v>
+        <v>1.866486303508281</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.16585671203505</v>
@@ -27421,7 +27193,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.8659636150713</v>
+        <v>1.860280690908426</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.953312712490876</v>
@@ -27510,7 +27282,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.854986332233283</v>
+        <v>1.849269813939372</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.862196670516433</v>
@@ -27599,7 +27371,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.859032169652434</v>
+        <v>1.860428798196966</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.99879550154232</v>
@@ -27688,7 +27460,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.857059654937162</v>
+        <v>1.856426977891676</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.159377370337692</v>
@@ -27777,7 +27549,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.868587450794666</v>
+        <v>1.862164386069788</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.32429481588577</v>
@@ -27866,7 +27638,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.856747793450935</v>
+        <v>1.853795245260501</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.05829228799342</v>
@@ -27955,7 +27727,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.845962617007515</v>
+        <v>1.843773055002029</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.411463262895077</v>
@@ -28044,7 +27816,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.846284495879307</v>
+        <v>1.840184929827307</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.070688296491838</v>
@@ -28133,7 +27905,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.843746799838312</v>
+        <v>1.83267379216563</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.411713929748992</v>
@@ -28222,7 +27994,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.84775091005416</v>
+        <v>1.832513981661739</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.385307875738319</v>
@@ -28311,7 +28083,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.851746087775292</v>
+        <v>1.837555422189839</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.987838853273121</v>
@@ -28400,7 +28172,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.851441057154375</v>
+        <v>1.842142916096675</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.967856511469229</v>
@@ -28489,7 +28261,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.848157287568293</v>
+        <v>1.842348205156439</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.106818642250678</v>
@@ -28578,7 +28350,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.850090099533588</v>
+        <v>1.845380155327353</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.027303182121241</v>
@@ -28667,7 +28439,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.849833725870833</v>
+        <v>1.844019464920645</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.299092651545844</v>
@@ -28756,7 +28528,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.862007507176082</v>
+        <v>1.856450526551855</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.342197061036376</v>
@@ -28845,7 +28617,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.858596975092958</v>
+        <v>1.854201326122143</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.753879541619006</v>
@@ -28934,7 +28706,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.867174520566583</v>
+        <v>1.864239684072026</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.115539021282261</v>
@@ -29023,7 +28795,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.8696139331893</v>
+        <v>1.868957161018318</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.994134175309339</v>
@@ -29112,7 +28884,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.859145124672602</v>
+        <v>1.868105949579301</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.083235000366363</v>
@@ -29201,7 +28973,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.873554535201244</v>
+        <v>1.883536222359252</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.850385163829969</v>
@@ -29290,7 +29062,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.874816032370218</v>
+        <v>1.887009248039029</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.119276071411061</v>
@@ -29379,7 +29151,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.870779339977666</v>
+        <v>1.88760064524058</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.106110087774199</v>
@@ -29468,7 +29240,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.875540308022021</v>
+        <v>1.893560646675896</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.901624008302503</v>
@@ -29557,7 +29329,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.867225854095504</v>
+        <v>1.893061690350624</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.72292353004763</v>
@@ -29646,7 +29418,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.872777353770487</v>
+        <v>1.899298933333403</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.942485705340367</v>
@@ -29735,7 +29507,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.871596295517072</v>
+        <v>1.891383152232212</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.886820541036165</v>
@@ -29824,7 +29596,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.869406064697781</v>
+        <v>1.888567204486752</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.722598465436441</v>
@@ -29913,7 +29685,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.870892179244746</v>
+        <v>1.885063065870046</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.111339057710741</v>
@@ -30002,7 +29774,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.870739330471946</v>
+        <v>1.889326637501608</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.992630834468678</v>
@@ -30091,7 +29863,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.865652677743589</v>
+        <v>1.884333116099935</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.809101521123798</v>
@@ -30180,7 +29952,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.877881499070635</v>
+        <v>1.899666735823422</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.191310673372865</v>
@@ -30269,7 +30041,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.867989181689044</v>
+        <v>1.886537681882564</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.184933492794331</v>
@@ -30358,7 +30130,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.873596313826646</v>
+        <v>1.890685497332186</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.19836334826293</v>
@@ -30447,7 +30219,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.886607253272692</v>
+        <v>1.895322290401172</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.361715055205355</v>
@@ -30536,7 +30308,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.887306422075241</v>
+        <v>1.890878966491471</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>4.26627815756409</v>
@@ -30625,7 +30397,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.896117426296883</v>
+        <v>1.89985980288312</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.609051473581955</v>
@@ -30714,7 +30486,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.902801923779767</v>
+        <v>1.907799970793893</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.588844233353512</v>
@@ -30803,7 +30575,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.894432407108503</v>
+        <v>1.899610461578069</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>4.30128174318614</v>
@@ -30892,7 +30664,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.902058774948576</v>
+        <v>1.90436815370997</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>4.459779403594291</v>
@@ -30981,7 +30753,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.884540241141646</v>
+        <v>1.885403574618437</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.934140812970759</v>
@@ -31070,7 +30842,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.886867581158625</v>
+        <v>1.889931897630355</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>4.18938250647884</v>
@@ -31159,7 +30931,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.890833132571116</v>
+        <v>1.89349089222531</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>4.21767879109517</v>
@@ -31248,7 +31020,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.889458672307273</v>
+        <v>1.89384678880636</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>4.258082782720405</v>
@@ -31337,7 +31109,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.885344779167895</v>
+        <v>1.884998371635148</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.978953331838838</v>
@@ -31426,7 +31198,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.887280869552338</v>
+        <v>1.885517118670495</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>4.089255119917055</v>
@@ -31515,7 +31287,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.862343869355008</v>
+        <v>1.861944740409809</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>4.183800912332976</v>
@@ -31604,7 +31376,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.843146393092757</v>
+        <v>1.833876741455455</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.036879642972756</v>
@@ -31693,7 +31465,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.801122592341553</v>
+        <v>1.810739487539172</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.00547506101027</v>
@@ -31782,7 +31554,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.808397409955136</v>
+        <v>1.819947148650419</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.973046954409978</v>
@@ -31871,7 +31643,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.808132417614005</v>
+        <v>1.822036973469615</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.970456650935113</v>
@@ -31960,7 +31732,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.803455928902844</v>
+        <v>1.821342975315432</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.906145563833901</v>
@@ -32246,7 +32018,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.877941293431185</v>
+        <v>1.872147863892097</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.719449886332139</v>
@@ -32335,7 +32107,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.878996341324703</v>
+        <v>1.876507313766434</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.624009120641213</v>
@@ -32424,7 +32196,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.881868100272073</v>
+        <v>1.884114590257795</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.121230361457658</v>
@@ -32513,7 +32285,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.890719805081351</v>
+        <v>1.89112185704104</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.77556834948062</v>
@@ -32602,7 +32374,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.881328164173555</v>
+        <v>1.879528985611472</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.410271252794799</v>
@@ -32691,7 +32463,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.899507903965156</v>
+        <v>1.895982517969506</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.23343181279303</v>
@@ -32780,7 +32552,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.901916297279168</v>
+        <v>1.900463414148824</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.021572958690815</v>
@@ -32869,7 +32641,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.904636890108442</v>
+        <v>1.899213361998783</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.160660855509921</v>
@@ -32958,7 +32730,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.903256354085024</v>
+        <v>1.899473651661945</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.579014238765039</v>
@@ -33047,7 +32819,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.910824846346634</v>
+        <v>1.904926945719943</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.988042749836336</v>
@@ -33136,7 +32908,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.912065678193459</v>
+        <v>1.910276388407482</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.535691356123637</v>
@@ -33225,7 +32997,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.917941433810563</v>
+        <v>1.913822651990021</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.976156149047166</v>
@@ -33314,7 +33086,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.924178555194353</v>
+        <v>1.910186789119809</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.297678359929983</v>
@@ -33403,7 +33175,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.917518047448375</v>
+        <v>1.899572559201802</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.61675118114793</v>
@@ -33492,7 +33264,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.91568460013115</v>
+        <v>1.894712679760141</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.322258810007797</v>
@@ -33581,7 +33353,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.916411013984613</v>
+        <v>1.892132098961417</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.024750292182909</v>
@@ -33670,7 +33442,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.91289830170591</v>
+        <v>1.875854959167325</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.069234070801406</v>
@@ -33759,7 +33531,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.912377327732098</v>
+        <v>1.879117541678558</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.020707010378096</v>
@@ -33848,7 +33620,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.908512642154384</v>
+        <v>1.877229452979839</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.282583644742308</v>
@@ -33937,7 +33709,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.915045506777496</v>
+        <v>1.879135948488244</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.240424055290604</v>
@@ -34026,7 +33798,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.913754642135774</v>
+        <v>1.873009306924249</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.037652022739941</v>
@@ -34115,7 +33887,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.914639986420885</v>
+        <v>1.871473179630018</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.130545472579779</v>
@@ -34204,7 +33976,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.903998291745159</v>
+        <v>1.866166926828886</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.93548937898677</v>
@@ -34293,7 +34065,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.901785372913016</v>
+        <v>1.867062847305128</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.631909085496384</v>
@@ -34382,7 +34154,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.901667783976859</v>
+        <v>1.86558888019934</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.178763578391525</v>
@@ -34471,7 +34243,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.905793739623272</v>
+        <v>1.864596981865872</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.656585468864767</v>
@@ -34560,7 +34332,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.904017937516005</v>
+        <v>1.864030585209937</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.916903569288144</v>
@@ -34649,7 +34421,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.897927412883225</v>
+        <v>1.858657691437602</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.452517749699073</v>
@@ -34738,7 +34510,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.910350979131222</v>
+        <v>1.872793190712223</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.735366894991779</v>
@@ -34827,7 +34599,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.90318421693445</v>
+        <v>1.872536598286474</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.922233793460035</v>
@@ -34916,7 +34688,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.894216052711063</v>
+        <v>1.86120896780036</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.113437704526386</v>
@@ -35005,7 +34777,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.902880408096138</v>
+        <v>1.87841646000908</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.055569335630054</v>
@@ -35094,7 +34866,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.89531960693733</v>
+        <v>1.869453729948284</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.078237303097611</v>
@@ -35183,7 +34955,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.888320352745755</v>
+        <v>1.862100835943345</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.764971636331561</v>
@@ -35272,7 +35044,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.885906741829571</v>
+        <v>1.863149519327698</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.756928647483955</v>
@@ -35361,7 +35133,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.879755035259069</v>
+        <v>1.854443509499236</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.889548090045361</v>
@@ -35450,7 +35222,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.87512183136843</v>
+        <v>1.848219659159852</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.254153257492667</v>
@@ -35539,7 +35311,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.874779426219683</v>
+        <v>1.843980624198672</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.738127317429922</v>
@@ -35628,7 +35400,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.874078874293839</v>
+        <v>1.84055266214903</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.288809837160373</v>
@@ -35717,7 +35489,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.878210572789247</v>
+        <v>1.848140100686968</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.958655617566687</v>
@@ -35806,7 +35578,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.873115047769912</v>
+        <v>1.847151892901635</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.543889339685054</v>
@@ -35895,7 +35667,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.871136817715516</v>
+        <v>1.848169287584336</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.03017025620076</v>
@@ -35984,7 +35756,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.878732256802358</v>
+        <v>1.857856525952698</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.867355036999878</v>
@@ -36073,7 +35845,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.873590646491668</v>
+        <v>1.851468414247072</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.932658673630729</v>
@@ -36162,7 +35934,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.88047697370108</v>
+        <v>1.853409115210799</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.683355437548311</v>
@@ -36251,7 +36023,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.878839234786984</v>
+        <v>1.858448925518386</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.616894370938303</v>
@@ -36340,7 +36112,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.8801811634625</v>
+        <v>1.864478604093264</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.010826293954508</v>
@@ -36429,7 +36201,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.884950795395963</v>
+        <v>1.872929239338131</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.486231044428046</v>
@@ -36518,7 +36290,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.887125966886595</v>
+        <v>1.879544132251428</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.055370874902354</v>
@@ -36607,7 +36379,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.897736388921824</v>
+        <v>1.89334759290072</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.423998829765469</v>
@@ -36696,7 +36468,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.895161621011967</v>
+        <v>1.8968342894823</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.398800332502793</v>
@@ -36785,7 +36557,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.896569431973807</v>
+        <v>1.906566778864759</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.341587484170399</v>
@@ -36874,7 +36646,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.903151310352533</v>
+        <v>1.916137058068994</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.879212707513488</v>
@@ -36963,7 +36735,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.907806480039596</v>
+        <v>1.918209190312717</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.96101102041734</v>
@@ -37052,7 +36824,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.904073532230209</v>
+        <v>1.912393941497081</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.711844054352509</v>
@@ -37141,7 +36913,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.910551099577133</v>
+        <v>1.91178725299581</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.910735635322458</v>
@@ -37230,7 +37002,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.903069957826062</v>
+        <v>1.905032213764573</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.968834166250241</v>
@@ -37319,7 +37091,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.898466610659761</v>
+        <v>1.899714857709081</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.193148652139916</v>
@@ -37408,7 +37180,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.900997605705433</v>
+        <v>1.911821513913945</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.657371916263691</v>
@@ -37497,7 +37269,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.896316006511981</v>
+        <v>1.912389259624106</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.953653115193643</v>
@@ -37586,7 +37358,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.913504061593611</v>
+        <v>1.929450742430798</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.439804228306907</v>
@@ -37675,7 +37447,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.903031974147304</v>
+        <v>1.915287953244918</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.804225509219566</v>
@@ -37764,7 +37536,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.908902746666791</v>
+        <v>1.92175943781833</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.545835897144979</v>
@@ -37853,7 +37625,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.903108687731759</v>
+        <v>1.913139445219952</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.896343203641793</v>
@@ -37942,7 +37714,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.896625817998123</v>
+        <v>1.902570405425329</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.850938432387048</v>
@@ -38031,7 +37803,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.902182948691676</v>
+        <v>1.910638860816558</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>4.325280426818944</v>
@@ -38120,7 +37892,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.899283488993151</v>
+        <v>1.908673750595228</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.283465320360036</v>
@@ -38209,7 +37981,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.891384348231142</v>
+        <v>1.902858260442528</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>4.203905368785908</v>
@@ -38298,7 +38070,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.889925158620146</v>
+        <v>1.904500231625199</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>4.222071963677109</v>
@@ -38387,7 +38159,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.880334292523503</v>
+        <v>1.895720055264276</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>4.235829420671442</v>
@@ -38476,7 +38248,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.87434683455546</v>
+        <v>1.895882134455487</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>4.383414725645978</v>
@@ -38565,7 +38337,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.882550972136875</v>
+        <v>1.905080128877518</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>4.513599480609446</v>
@@ -38654,7 +38426,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.882536275618406</v>
+        <v>1.910663345942054</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>4.496205119417469</v>
@@ -38743,7 +38515,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.875887945969188</v>
+        <v>1.897750855299245</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.760864342174973</v>
@@ -38832,7 +38604,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.874511724433841</v>
+        <v>1.892355413215037</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>4.516098588902342</v>
@@ -38921,7 +38693,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.855522848937954</v>
+        <v>1.874910747513352</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.60687382497882</v>
@@ -39010,7 +38782,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.851072914368078</v>
+        <v>1.872006899470013</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.986867236574489</v>
@@ -39099,7 +38871,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.840517494132892</v>
+        <v>1.860041802940664</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>4.153310254526145</v>
@@ -39188,7 +38960,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.847999034885754</v>
+        <v>1.864393259294191</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>4.30915966839397</v>
@@ -39277,7 +39049,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.848202790602741</v>
+        <v>1.869941016033131</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>4.319863310184569</v>
@@ -39366,7 +39138,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.85194178937231</v>
+        <v>1.87406090284918</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.885590841371187</v>
@@ -39652,7 +39424,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.579840058813212</v>
+        <v>1.578430299989203</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.032623883755447</v>
@@ -39741,7 +39513,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.564210371678843</v>
+        <v>1.568265018974067</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.012610383353355</v>
@@ -39830,7 +39602,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.576268444067535</v>
+        <v>1.578633472118406</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.445492938585712</v>
@@ -39919,7 +39691,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.592986850936751</v>
+        <v>1.593803490053892</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.260129780109591</v>
@@ -40008,7 +39780,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.583947081407326</v>
+        <v>1.587090893602962</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.99783556890319</v>
@@ -40097,7 +39869,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.589298484551085</v>
+        <v>1.591523016453148</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.836215272889617</v>
@@ -40186,7 +39958,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.5937322601795</v>
+        <v>1.596867473425686</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.029769131184935</v>
@@ -40275,7 +40047,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.578009881079472</v>
+        <v>1.578611505831959</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.947085768649342</v>
@@ -40364,7 +40136,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.557037567582181</v>
+        <v>1.554523411339808</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.46703945598741</v>
@@ -40453,7 +40225,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.517196085821934</v>
+        <v>1.52909011340005</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.396573655371987</v>
@@ -40542,7 +40314,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.514684117459688</v>
+        <v>1.523416302349835</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.610863182642484</v>
@@ -40631,7 +40403,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.509693325625728</v>
+        <v>1.514550540172106</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.593087270305293</v>
@@ -40720,7 +40492,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.494374475061295</v>
+        <v>1.494745949615895</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.543872597150929</v>
@@ -40809,7 +40581,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.495258199677964</v>
+        <v>1.493754583304176</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.482551698370999</v>
@@ -40898,7 +40670,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.491755146673772</v>
+        <v>1.489433317928732</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.380584231196401</v>
@@ -40987,7 +40759,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.49612250756412</v>
+        <v>1.494676724557238</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.437902806820366</v>
@@ -41076,7 +40848,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.495656849054333</v>
+        <v>1.490816772820929</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.335117691461198</v>
@@ -41165,7 +40937,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.493743031417232</v>
+        <v>1.488196294442581</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.548009223228904</v>
@@ -41254,7 +41026,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.493124252893688</v>
+        <v>1.486357018672138</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.413632292264864</v>
@@ -41343,7 +41115,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.481256005690487</v>
+        <v>1.476335713600037</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.504248562853401</v>
@@ -41432,7 +41204,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.471002326249646</v>
+        <v>1.467718574111725</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.439298329467809</v>
@@ -41521,7 +41293,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.472921087836454</v>
+        <v>1.463641548575966</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.283541021644902</v>
@@ -41610,7 +41382,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.468051432861301</v>
+        <v>1.461264510821952</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.405518006545067</v>
@@ -41699,7 +41471,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.485069883655647</v>
+        <v>1.476561283157507</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.397432282833198</v>
@@ -41788,7 +41560,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.495188807539553</v>
+        <v>1.483098375547701</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.78860070159153</v>
@@ -41877,7 +41649,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.486283729674758</v>
+        <v>1.466334000324494</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.75679221771438</v>
@@ -41966,7 +41738,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.48341178931491</v>
+        <v>1.463695543573529</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.609393976244779</v>
@@ -42055,7 +41827,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.467542725251548</v>
+        <v>1.45341949003588</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.837515519809263</v>
@@ -42144,7 +41916,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.461142677205232</v>
+        <v>1.449649099464386</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.889384177958608</v>
@@ -42233,7 +42005,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.451283442292128</v>
+        <v>1.440291124721728</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.84878350281635</v>
@@ -42322,7 +42094,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.425349486291347</v>
+        <v>1.407961845568426</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.668232215593858</v>
@@ -42411,7 +42183,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.441660725469473</v>
+        <v>1.421255946885644</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.609714513241165</v>
@@ -42500,7 +42272,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.43329097896455</v>
+        <v>1.406296846616841</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.562202952062716</v>
@@ -42589,7 +42361,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.414818404679022</v>
+        <v>1.385701999095917</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.655809808286692</v>
@@ -42678,7 +42450,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.414027821082773</v>
+        <v>1.368470981649948</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.077833451153738</v>
@@ -42767,7 +42539,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.383555257021892</v>
+        <v>1.342871825922818</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.029202336037105</v>
@@ -42856,7 +42628,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.395562760502834</v>
+        <v>1.350563553967555</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.092887367358611</v>
@@ -42945,7 +42717,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.394816337947292</v>
+        <v>1.341070357897289</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.195015515897771</v>
@@ -43034,7 +42806,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.385361658097018</v>
+        <v>1.329813695419528</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.283279244779937</v>
@@ -43123,7 +42895,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.367464299237495</v>
+        <v>1.313801708668388</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.157372596670093</v>
@@ -43212,7 +42984,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.371970543803861</v>
+        <v>1.320277974721277</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.248603726091232</v>
@@ -43301,7 +43073,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.367410162420583</v>
+        <v>1.314090642283959</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.278774032031685</v>
@@ -43390,7 +43162,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.363905081018223</v>
+        <v>1.307072007782108</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.173876025202913</v>
@@ -43479,7 +43251,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.36398671909758</v>
+        <v>1.306881418887667</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.217496987324547</v>
@@ -43568,7 +43340,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.370797059838538</v>
+        <v>1.316914704035317</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.153366561383467</v>
@@ -43657,7 +43429,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.384198163454757</v>
+        <v>1.330361441071172</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.196828288787939</v>
@@ -43746,7 +43518,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.383686464076253</v>
+        <v>1.330137423508043</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.27515441210449</v>
@@ -43835,7 +43607,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.391199154411103</v>
+        <v>1.338399190773509</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.169832090183963</v>
@@ -43924,7 +43696,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.370648204779044</v>
+        <v>1.321670842123363</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.813081643312979</v>
@@ -44013,7 +43785,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.380717661421077</v>
+        <v>1.32432675442013</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.731696314082805</v>
@@ -44102,7 +43874,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.369955774071243</v>
+        <v>1.320452298442254</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.826736983854779</v>
@@ -44191,7 +43963,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.365913295083544</v>
+        <v>1.32257057433771</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.808987872309693</v>
@@ -44280,7 +44052,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.360522664878863</v>
+        <v>1.318909264685992</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.820541310394171</v>
@@ -44369,7 +44141,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.358416569522587</v>
+        <v>1.318779028370831</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.819619846695744</v>
@@ -44458,7 +44230,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.367860885722489</v>
+        <v>1.331490080425341</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.767868210581024</v>
@@ -44547,7 +44319,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.364580350886454</v>
+        <v>1.33178526313007</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.743898876162973</v>
@@ -44636,7 +44408,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.366463006316559</v>
+        <v>1.330720122408235</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.783812169580904</v>
@@ -44725,7 +44497,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.381259611008951</v>
+        <v>1.351937305677941</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.80066239373367</v>
@@ -44814,7 +44586,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.376423785817357</v>
+        <v>1.348946832443034</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.7772994343688</v>
@@ -44903,7 +44675,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.370332494001896</v>
+        <v>1.338851632051277</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.804290151237113</v>
@@ -44992,7 +44764,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.356416392775868</v>
+        <v>1.325040035682316</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.809278614088166</v>
@@ -45081,7 +44853,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.354451814218991</v>
+        <v>1.320920261565279</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.817039670315731</v>
@@ -45170,7 +44942,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.356622886055939</v>
+        <v>1.318677587792346</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.821057998165528</v>
@@ -45259,7 +45031,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.386053545478217</v>
+        <v>1.34235591380429</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.81898409428185</v>
@@ -45348,7 +45120,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.377777242230598</v>
+        <v>1.334398311583154</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.836712134816861</v>
@@ -45437,7 +45209,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.364763702626843</v>
+        <v>1.33254789877494</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.807662678883296</v>
@@ -45526,7 +45298,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.351002974267685</v>
+        <v>1.316209119327888</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.798190659671124</v>
@@ -45615,7 +45387,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.345134737479614</v>
+        <v>1.315900282032408</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.801051843442345</v>
@@ -45704,7 +45476,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.349769030483825</v>
+        <v>1.321816197298464</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.831166555250452</v>
@@ -45793,7 +45565,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.349001115263637</v>
+        <v>1.319033265364379</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.813832386404113</v>
@@ -45882,7 +45654,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.350186114821731</v>
+        <v>1.323313670321628</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.856294533963412</v>
@@ -45971,7 +45743,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.347133382051345</v>
+        <v>1.320637748537218</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.770127680523124</v>
@@ -46060,7 +45832,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.334368051311183</v>
+        <v>1.308406546275788</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.805244736350299</v>
@@ -46149,7 +45921,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.338311280602408</v>
+        <v>1.302710956243799</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.835566470429503</v>
@@ -46238,7 +46010,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.323284604609342</v>
+        <v>1.291253660797988</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.833932172290909</v>
@@ -46327,7 +46099,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.283851105685778</v>
+        <v>1.243350501037058</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.85772842424254</v>
@@ -46416,7 +46188,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.249994437179381</v>
+        <v>1.215306430292221</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.934003411762014</v>
@@ -46505,7 +46277,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.236274297599539</v>
+        <v>1.201191827910808</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.987254717438341</v>
@@ -46594,7 +46366,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.225817790672722</v>
+        <v>1.191177497736259</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.916328521488935</v>
@@ -46683,7 +46455,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.223424356283561</v>
+        <v>1.189466065928305</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.897866610315495</v>
@@ -46772,7 +46544,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.215347831497225</v>
+        <v>1.180808426807144</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.976987854835226</v>
@@ -47058,7 +46830,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.727172903644904</v>
+        <v>1.767050424990708</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.935962277764176</v>
@@ -47147,7 +46919,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.730397571900825</v>
+        <v>1.772652233677041</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.053621203594654</v>
@@ -47236,7 +47008,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.747029673870511</v>
+        <v>1.790305332731552</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.933567168670968</v>
@@ -47325,7 +47097,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.769271389248481</v>
+        <v>1.81045621183194</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.821788097322127</v>
@@ -47414,7 +47186,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.741568253888605</v>
+        <v>1.783531140646172</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.191624119448547</v>
@@ -47503,7 +47275,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.779707841461765</v>
+        <v>1.820169939448565</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.846779724965168</v>
@@ -47592,7 +47364,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.804144041372228</v>
+        <v>1.839992639681433</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.639153178140134</v>
@@ -47681,7 +47453,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.810262191419043</v>
+        <v>1.843068242756258</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.756260519490366</v>
@@ -47770,7 +47542,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.809137807485945</v>
+        <v>1.844911873214459</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.940614085912866</v>
@@ -47859,7 +47631,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.831352357201974</v>
+        <v>1.860788367691313</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.397161201791645</v>
@@ -47948,7 +47720,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.831526249463985</v>
+        <v>1.85871808833056</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.932747065479928</v>
@@ -48037,7 +47809,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.848685003393051</v>
+        <v>1.872468283557138</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.479779145182981</v>
@@ -48126,7 +47898,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.869631841255592</v>
+        <v>1.883414716122407</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.238388724332401</v>
@@ -48215,7 +47987,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.860416767556668</v>
+        <v>1.874901369511862</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.216341590589761</v>
@@ -48304,7 +48076,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.861477056065187</v>
+        <v>1.872876314252285</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.259332516919395</v>
@@ -48393,7 +48165,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.864125577796336</v>
+        <v>1.874426846448557</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.210924155539556</v>
@@ -48482,7 +48254,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.861715446394136</v>
+        <v>1.862104551835568</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.059766841036413</v>
@@ -48571,7 +48343,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.851418748430974</v>
+        <v>1.857607776762416</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.983409791038896</v>
@@ -48660,7 +48432,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.848243093550862</v>
+        <v>1.854649252289329</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.026131200196974</v>
@@ -48749,7 +48521,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.881637187544359</v>
+        <v>1.875626237006788</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.037358919575292</v>
@@ -48838,7 +48610,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.880363514377358</v>
+        <v>1.869309987178075</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.138416597389744</v>
@@ -48927,7 +48699,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.88045201377816</v>
+        <v>1.863020074498999</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.136253777189633</v>
@@ -49016,7 +48788,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.858820804396907</v>
+        <v>1.846899541435947</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.065168442912205</v>
@@ -49105,7 +48877,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.859147071096587</v>
+        <v>1.848539464309648</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.029707639870931</v>
@@ -49194,7 +48966,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.850269082631251</v>
+        <v>1.843682971336136</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.889847380261619</v>
@@ -49283,7 +49055,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.87079664607953</v>
+        <v>1.853304584955918</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.452701661191919</v>
@@ -49372,7 +49144,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.869629454748318</v>
+        <v>1.848362395144118</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.050120182247628</v>
@@ -49461,7 +49233,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.849039726492171</v>
+        <v>1.834271989326583</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.363310836237773</v>
@@ -49550,7 +49322,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.869382209616759</v>
+        <v>1.849682478140023</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.147482235238538</v>
@@ -49639,7 +49411,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.849108938525748</v>
+        <v>1.837602590374372</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.925389497107539</v>
@@ -49728,7 +49500,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.831530881227896</v>
+        <v>1.820567560163724</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.941307790737568</v>
@@ -49817,7 +49589,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.844642010124923</v>
+        <v>1.837741009084414</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.101392073121698</v>
@@ -49906,7 +49678,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.825138948486733</v>
+        <v>1.82370529049176</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.101863855682369</v>
@@ -49995,7 +49767,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.822632118762212</v>
+        <v>1.820530653133825</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.454719671980243</v>
@@ -50084,7 +49856,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.821558960872668</v>
+        <v>1.824110696806486</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.028352525459995</v>
@@ -50173,7 +49945,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.814873882898623</v>
+        <v>1.817108073142483</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.056271344920946</v>
@@ -50262,7 +50034,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.787467132965225</v>
+        <v>1.797999271816833</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.109079349720713</v>
@@ -50351,7 +50123,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.783859900579065</v>
+        <v>1.793928795147531</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.13527827951108</v>
@@ -50440,7 +50212,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.773420385892784</v>
+        <v>1.77877989128212</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.984532989598967</v>
@@ -50529,7 +50301,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.788138711217204</v>
+        <v>1.798373494906871</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.190065582426284</v>
@@ -50618,7 +50390,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.775763411384943</v>
+        <v>1.788563795883422</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.230365261996112</v>
@@ -50707,7 +50479,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.763129781968828</v>
+        <v>1.787517345123416</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.097853631146239</v>
@@ -50796,7 +50568,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.775221365916088</v>
+        <v>1.799260444914582</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.300095862986591</v>
@@ -50885,7 +50657,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.775349049401649</v>
+        <v>1.79858968804509</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.973696655960983</v>
@@ -50974,7 +50746,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.804079425805158</v>
+        <v>1.824999497803859</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.516190455756629</v>
@@ -51063,7 +50835,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.799432506228078</v>
+        <v>1.822279036728444</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.984791317658014</v>
@@ -51152,7 +50924,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.796367335117374</v>
+        <v>1.820381139929345</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.165258175322465</v>
@@ -51241,7 +51013,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.804286598075905</v>
+        <v>1.827544107732977</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.378738190432432</v>
@@ -51330,7 +51102,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.804554006209573</v>
+        <v>1.835874553799964</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.364901445109363</v>
@@ -51419,7 +51191,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.805717575504414</v>
+        <v>1.837708664217857</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.410547682426637</v>
@@ -51508,7 +51280,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.796955424685093</v>
+        <v>1.830576568904821</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.704932289054529</v>
@@ -51597,7 +51369,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.814745222272324</v>
+        <v>1.854126658580559</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.26607615699827</v>
@@ -51686,7 +51458,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.835627922513366</v>
+        <v>1.876048037493308</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.214973074152997</v>
@@ -51775,7 +51547,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.853854297891313</v>
+        <v>1.892523106687332</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.111843541185629</v>
@@ -51864,7 +51636,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.850727759656079</v>
+        <v>1.885151096124173</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.434008544942732</v>
@@ -51953,7 +51725,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.87116630247364</v>
+        <v>1.892755075237065</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.877034931747972</v>
@@ -52042,7 +51814,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.846203871206917</v>
+        <v>1.871927214997193</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.100065118749042</v>
@@ -52131,7 +51903,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.847689384523975</v>
+        <v>1.8778701048893</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.015278568258828</v>
@@ -52220,7 +51992,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.84957268622071</v>
+        <v>1.883421717911337</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.274575715445493</v>
@@ -52309,7 +52081,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.824027552447781</v>
+        <v>1.859685757437956</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.96119428383859</v>
@@ -52398,7 +52170,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.848722504918045</v>
+        <v>1.879928997669522</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.049142718489692</v>
@@ -52487,7 +52259,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.825843342001771</v>
+        <v>1.856679168285774</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.908424685881708</v>
@@ -52576,7 +52348,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.840836581617384</v>
+        <v>1.870174275652587</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.291823918558412</v>
@@ -52665,7 +52437,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.815800775610689</v>
+        <v>1.843561676690635</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.989302863774285</v>
@@ -52754,7 +52526,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.794999690946965</v>
+        <v>1.823382232788141</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.118193731527548</v>
@@ -52843,7 +52615,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.795893329023265</v>
+        <v>1.827496025385349</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.103189850205434</v>
@@ -52932,7 +52704,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.795646028327899</v>
+        <v>1.826919884906606</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.847510611247617</v>
@@ -53021,7 +52793,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.774958230776911</v>
+        <v>1.812030251911784</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.075675495517461</v>
@@ -53110,7 +52882,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.77682270594699</v>
+        <v>1.815693577256395</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.087208368993917</v>
@@ -53199,7 +52971,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.748802410888748</v>
+        <v>1.79157783194277</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.938281522181627</v>
@@ -53288,7 +53060,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.73542228489233</v>
+        <v>1.787689857767871</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.907828534332061</v>
@@ -53377,7 +53149,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.752156015528946</v>
+        <v>1.804728252558937</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.080406011729704</v>
@@ -53466,7 +53238,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.73122269501824</v>
+        <v>1.785415566343519</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.846650622278233</v>
@@ -53555,7 +53327,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.725857487896412</v>
+        <v>1.776559223892743</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.727296950957969</v>
@@ -53644,7 +53416,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.727354552739907</v>
+        <v>1.778395880967551</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.914781704441788</v>
@@ -53733,7 +53505,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.722934646254898</v>
+        <v>1.775098415665093</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.111948005077127</v>
@@ -53822,7 +53594,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.722462569402978</v>
+        <v>1.776098943790122</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.003727910612889</v>
@@ -53911,7 +53683,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.706906730762318</v>
+        <v>1.761661407971995</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.800194153052356</v>
@@ -54000,7 +53772,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.725043767579524</v>
+        <v>1.779663274607322</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.82769174413193</v>
@@ -54089,7 +53861,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.743561940076727</v>
+        <v>1.799378558611101</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.049943195373842</v>
@@ -54178,7 +53950,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.762640164108516</v>
+        <v>1.815657203616788</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.009038516306985</v>
